--- a/Wassauto/Excels/4resentrega_Only_Data .xlsx
+++ b/Wassauto/Excels/4resentrega_Only_Data .xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="415">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="418">
   <si>
     <t>LISTADO DE ENTREGAS</t>
   </si>
@@ -25,457 +25,466 @@
     <t>D3</t>
   </si>
   <si>
+    <t>CO11707029</t>
+  </si>
+  <si>
+    <t>CORUJEIRA ORTEGA DANIEL</t>
+  </si>
+  <si>
+    <t>TURQUESA</t>
+  </si>
+  <si>
+    <t>13:15</t>
+  </si>
+  <si>
+    <t>13:16</t>
+  </si>
+  <si>
+    <t>HOTELPTO</t>
+  </si>
+  <si>
+    <t>VW POLO</t>
+  </si>
+  <si>
+    <t>6507 GXJ</t>
+  </si>
+  <si>
+    <t>DANIEL CORUJEIRA</t>
+  </si>
+  <si>
+    <t>CO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(YARIS)  </t>
+  </si>
+  <si>
+    <t>Telf.: +34671152525</t>
+  </si>
+  <si>
+    <t>OFI RESERVA :</t>
+  </si>
+  <si>
+    <t>USUARIO CREACIÓN :</t>
+  </si>
+  <si>
+    <t>CA</t>
+  </si>
+  <si>
+    <t>FECHA RESERVA :</t>
+  </si>
+  <si>
+    <t>H. RES. :</t>
+  </si>
+  <si>
+    <t>09:41</t>
+  </si>
+  <si>
+    <t>BLANCO</t>
+  </si>
+  <si>
+    <t>daniel#corujeira.es</t>
+  </si>
+  <si>
+    <t>Última Devolución:  :</t>
+  </si>
+  <si>
+    <t>CO1707086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lugar: </t>
+  </si>
+  <si>
+    <t>GARAJE</t>
+  </si>
+  <si>
+    <t>TRIANFLOR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fecha: </t>
+  </si>
+  <si>
+    <t>VE11707057</t>
+  </si>
+  <si>
+    <t>ALAMO OLIVER</t>
+  </si>
+  <si>
+    <t>SAN TELMO 211</t>
+  </si>
+  <si>
+    <t>09:30</t>
+  </si>
+  <si>
+    <t>08:00</t>
+  </si>
+  <si>
+    <t>PARKING</t>
+  </si>
+  <si>
+    <t>CITROEN C3</t>
+  </si>
+  <si>
+    <t>2735 LSY</t>
+  </si>
+  <si>
+    <t>VE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Telf.: +34664580996 </t>
+  </si>
+  <si>
+    <t>18:42</t>
+  </si>
+  <si>
+    <t>GRIS</t>
+  </si>
+  <si>
+    <t>CO17070082</t>
+  </si>
+  <si>
+    <t>REINA SOFIA</t>
+  </si>
+  <si>
+    <t>EL MEDANO, PRIVADO</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>VE11708001</t>
+  </si>
+  <si>
+    <t>ALEJANDRO</t>
+  </si>
+  <si>
+    <t>SAN FELIPE 203</t>
+  </si>
+  <si>
+    <t>VENEZUELA</t>
+  </si>
+  <si>
+    <t>9340 LML</t>
+  </si>
+  <si>
+    <t>ALE</t>
+  </si>
+  <si>
+    <t>Telf.: 669968954</t>
+  </si>
+  <si>
+    <t>10:00</t>
+  </si>
+  <si>
+    <t>VE17070059</t>
+  </si>
+  <si>
+    <t>EL TOPE 101</t>
+  </si>
+  <si>
+    <t>VE11708003</t>
+  </si>
+  <si>
+    <t>PARILLO CARLO</t>
+  </si>
+  <si>
+    <t>VALLE MAR 326</t>
+  </si>
+  <si>
+    <t>7032 HFP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Telf.: +393293299445  </t>
+  </si>
+  <si>
+    <t>11:32</t>
+  </si>
+  <si>
+    <t>VE17070056</t>
+  </si>
+  <si>
+    <t>SAN TELMO 315</t>
+  </si>
+  <si>
+    <t>D2</t>
+  </si>
+  <si>
+    <t>CO11706250</t>
+  </si>
+  <si>
+    <t>BERTAUT QUENTIN</t>
+  </si>
+  <si>
+    <t>BE LIVE EXPERIENCE OROTAVA</t>
+  </si>
+  <si>
+    <t>19:00</t>
+  </si>
+  <si>
+    <t>SEAT IBIZA</t>
+  </si>
+  <si>
+    <t>7839 HDW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(IBIZA)  COBRAR FIANZA  </t>
+  </si>
+  <si>
+    <t>Telf.: +33667970490  +33763204685</t>
+  </si>
+  <si>
+    <t>HE</t>
+  </si>
+  <si>
+    <t>11:03</t>
+  </si>
+  <si>
+    <t>CO17070098</t>
+  </si>
+  <si>
+    <t>BLUE SEA PUERTO RESORT</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>CO11706325</t>
+  </si>
+  <si>
+    <t>REGUERA WANDEN RAFAEL</t>
+  </si>
+  <si>
+    <t>PUERTO PALACE</t>
+  </si>
+  <si>
+    <t>TOYOTA YARIS</t>
+  </si>
+  <si>
+    <t>4128 HLL</t>
+  </si>
+  <si>
+    <t>ESPAÑOL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Telf.: 667592812  </t>
+  </si>
+  <si>
+    <t>19:27</t>
+  </si>
+  <si>
+    <t>CO17070104</t>
+  </si>
+  <si>
+    <t>XIBANA PARK</t>
+  </si>
+  <si>
+    <t>QT11708000</t>
+  </si>
+  <si>
+    <t>BOTTICELLI MATTEO</t>
+  </si>
+  <si>
+    <t>LA QUINTA PARK</t>
+  </si>
+  <si>
+    <t>09:43</t>
+  </si>
+  <si>
+    <t>20:00</t>
+  </si>
+  <si>
+    <t>HOTELEXTRRAD</t>
+  </si>
+  <si>
+    <t>VW. POLO</t>
+  </si>
+  <si>
+    <t>7737 HXZ</t>
+  </si>
+  <si>
+    <t>INGLES</t>
+  </si>
+  <si>
+    <t>QT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Telf.: 0039-3387654123  </t>
+  </si>
+  <si>
+    <t>BJ</t>
+  </si>
+  <si>
+    <t>CH17070013</t>
+  </si>
+  <si>
+    <t>TRIANFLOR 2220</t>
+  </si>
+  <si>
+    <t>EC11707017</t>
+  </si>
+  <si>
+    <t>BURNOG KRZYSZTOF</t>
+  </si>
+  <si>
+    <t>EL TOPE 526</t>
+  </si>
+  <si>
+    <t>2384 HTN</t>
+  </si>
+  <si>
+    <t>EC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Telf.: +48725498564  </t>
+  </si>
+  <si>
+    <t>11:59</t>
+  </si>
+  <si>
+    <t>CO17070092</t>
+  </si>
+  <si>
+    <t>PQUE VACACIONAL EDEN</t>
+  </si>
+  <si>
+    <t>CH11708000</t>
+  </si>
+  <si>
+    <t>MARTIN HIERRO MANUEL</t>
+  </si>
+  <si>
+    <t>TRYP SN</t>
+  </si>
+  <si>
+    <t>2714 HTZ</t>
+  </si>
+  <si>
+    <t>CH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Telf.: 655460585  </t>
+  </si>
+  <si>
+    <t>12:33</t>
+  </si>
+  <si>
+    <t>PLATA</t>
+  </si>
+  <si>
+    <t>ET17070009</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>CO11703298</t>
+  </si>
+  <si>
+    <t>CORADO FREITAS DIOGO</t>
+  </si>
+  <si>
+    <t>CONCORDIA</t>
+  </si>
+  <si>
+    <t>OFICINA INDEFINIDA *</t>
+  </si>
+  <si>
+    <t>7028 HFP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(UP)  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Telf.: 684363902  </t>
+  </si>
+  <si>
+    <t>09:25</t>
+  </si>
+  <si>
+    <t>diogo.corado#gmail.com</t>
+  </si>
+  <si>
+    <t>GE17070015</t>
+  </si>
+  <si>
+    <t>RODEOS</t>
+  </si>
+  <si>
+    <t>MIRAMAR 908</t>
+  </si>
+  <si>
+    <t>C3</t>
+  </si>
+  <si>
+    <t>CO11706082</t>
+  </si>
+  <si>
+    <t>KUHLMANN FRANK</t>
+  </si>
+  <si>
+    <t>TROVADOR</t>
+  </si>
+  <si>
+    <t>GARAJE *</t>
+  </si>
+  <si>
+    <t>OPEL CORSA</t>
+  </si>
+  <si>
+    <t>8846 HYC</t>
+  </si>
+  <si>
+    <t>Telf.: +491715084197  +4915126425330</t>
+  </si>
+  <si>
+    <t>10:18</t>
+  </si>
+  <si>
+    <t>CO17070089</t>
+  </si>
+  <si>
+    <t>BEST SEMIRAMIS</t>
+  </si>
+  <si>
+    <t>H3</t>
+  </si>
+  <si>
+    <t>CO11708005</t>
+  </si>
+  <si>
+    <t>GOLEADO BOIX MANUEL VICENTE</t>
+  </si>
+  <si>
+    <t>HOTEL PUERTO DE LA CRUZ 218</t>
+  </si>
+  <si>
+    <t>VW CADDY</t>
+  </si>
+  <si>
+    <t>0849 JBD</t>
+  </si>
+  <si>
+    <t>Telf.: 669821334  600394501</t>
+  </si>
+  <si>
+    <t>09:16</t>
+  </si>
+  <si>
+    <t>CH17070012</t>
+  </si>
+  <si>
+    <t>HOTELPTO FIANZA</t>
+  </si>
+  <si>
+    <t>SAN ANTONIO 1102</t>
+  </si>
+  <si>
     <t>CO11707086</t>
-  </si>
-  <si>
-    <t>DANIEL CORUJEIRA</t>
-  </si>
-  <si>
-    <t>TURQUESA</t>
-  </si>
-  <si>
-    <t>13:15</t>
-  </si>
-  <si>
-    <t>13:16</t>
-  </si>
-  <si>
-    <t>HOTELPTO</t>
-  </si>
-  <si>
-    <t>VW POLO</t>
-  </si>
-  <si>
-    <t>6507 GXJ</t>
-  </si>
-  <si>
-    <t>CO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(YARIS)  </t>
-  </si>
-  <si>
-    <t>Telf.: +34671152525</t>
-  </si>
-  <si>
-    <t>OFI RESERVA :</t>
-  </si>
-  <si>
-    <t>USUARIO CREACIÓN :</t>
-  </si>
-  <si>
-    <t>CA</t>
-  </si>
-  <si>
-    <t>FECHA RESERVA :</t>
-  </si>
-  <si>
-    <t>H. RES. :</t>
-  </si>
-  <si>
-    <t>09:41</t>
-  </si>
-  <si>
-    <t>BLANCO</t>
-  </si>
-  <si>
-    <t>daniel#corujeira.es</t>
-  </si>
-  <si>
-    <t>Última Devolución:  :</t>
-  </si>
-  <si>
-    <t>CO1707086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lugar: </t>
-  </si>
-  <si>
-    <t>GARAJE</t>
-  </si>
-  <si>
-    <t>TRIANFLOR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fecha: </t>
-  </si>
-  <si>
-    <t>VE11707057</t>
-  </si>
-  <si>
-    <t>ALAMO OLIVER</t>
-  </si>
-  <si>
-    <t>SAN TELMO 211</t>
-  </si>
-  <si>
-    <t>09:30</t>
-  </si>
-  <si>
-    <t>08:00</t>
-  </si>
-  <si>
-    <t>PARKING</t>
-  </si>
-  <si>
-    <t>CITROEN C3</t>
-  </si>
-  <si>
-    <t>2735 LSY</t>
-  </si>
-  <si>
-    <t>VE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Telf.: +34664580996 </t>
-  </si>
-  <si>
-    <t>18:42</t>
-  </si>
-  <si>
-    <t>GRIS</t>
-  </si>
-  <si>
-    <t>CO17070082</t>
-  </si>
-  <si>
-    <t>REINA SOFIA</t>
-  </si>
-  <si>
-    <t>EL MEDANO, PRIVADO</t>
-  </si>
-  <si>
-    <t>D1</t>
-  </si>
-  <si>
-    <t>VE11708001</t>
-  </si>
-  <si>
-    <t>ALE</t>
-  </si>
-  <si>
-    <t>SAN FELIPE 203</t>
-  </si>
-  <si>
-    <t>VENEZUELA</t>
-  </si>
-  <si>
-    <t>9340 LML</t>
-  </si>
-  <si>
-    <t>Telf.: 669968954</t>
-  </si>
-  <si>
-    <t>10:00</t>
-  </si>
-  <si>
-    <t>VE17070059</t>
-  </si>
-  <si>
-    <t>EL TOPE 101</t>
-  </si>
-  <si>
-    <t>VE11708003</t>
-  </si>
-  <si>
-    <t>PARILLO CARLO</t>
-  </si>
-  <si>
-    <t>VALLE MAR 326</t>
-  </si>
-  <si>
-    <t>7032 HFP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Telf.: +393293299445  </t>
-  </si>
-  <si>
-    <t>11:32</t>
-  </si>
-  <si>
-    <t>VE17070056</t>
-  </si>
-  <si>
-    <t>SAN TELMO 315</t>
-  </si>
-  <si>
-    <t>D2</t>
-  </si>
-  <si>
-    <t>CO11706250</t>
-  </si>
-  <si>
-    <t>BERTAUT QUENTIN</t>
-  </si>
-  <si>
-    <t>BE LIVE EXPERIENCE OROTAVA</t>
-  </si>
-  <si>
-    <t>19:00</t>
-  </si>
-  <si>
-    <t>SEAT IBIZA</t>
-  </si>
-  <si>
-    <t>7839 HDW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(IBIZA)  COBRAR FIANZA  </t>
-  </si>
-  <si>
-    <t>Telf.: +33667970490  +33763204685</t>
-  </si>
-  <si>
-    <t>HE</t>
-  </si>
-  <si>
-    <t>11:03</t>
-  </si>
-  <si>
-    <t>CO17070098</t>
-  </si>
-  <si>
-    <t>BLUE SEA PUERTO RESORT</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>CO11706325</t>
-  </si>
-  <si>
-    <t>REGUERA WANDEN RAFAEL</t>
-  </si>
-  <si>
-    <t>PUERTO PALACE</t>
-  </si>
-  <si>
-    <t>TOYOTA YARIS</t>
-  </si>
-  <si>
-    <t>4128 HLL</t>
-  </si>
-  <si>
-    <t>ESPAÑOL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Telf.: 667592812  </t>
-  </si>
-  <si>
-    <t>19:27</t>
-  </si>
-  <si>
-    <t>CO17070104</t>
-  </si>
-  <si>
-    <t>XIBANA PARK</t>
-  </si>
-  <si>
-    <t>QT11708000</t>
-  </si>
-  <si>
-    <t>BOTTICELLI MATTEO</t>
-  </si>
-  <si>
-    <t>LA QUINTA PARK</t>
-  </si>
-  <si>
-    <t>09:43</t>
-  </si>
-  <si>
-    <t>20:00</t>
-  </si>
-  <si>
-    <t>HOTELEXTRRAD</t>
-  </si>
-  <si>
-    <t>VW. POLO</t>
-  </si>
-  <si>
-    <t>7737 HXZ</t>
-  </si>
-  <si>
-    <t>INGLES</t>
-  </si>
-  <si>
-    <t>QT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Telf.: 0039-3387654123  </t>
-  </si>
-  <si>
-    <t>BJ</t>
-  </si>
-  <si>
-    <t>CH17070013</t>
-  </si>
-  <si>
-    <t>TRIANFLOR 2220</t>
-  </si>
-  <si>
-    <t>EC11707017</t>
-  </si>
-  <si>
-    <t>BURNOG KRZYSZTOF</t>
-  </si>
-  <si>
-    <t>EL TOPE 526</t>
-  </si>
-  <si>
-    <t>2384 HTN</t>
-  </si>
-  <si>
-    <t>EC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Telf.: +48725498564  </t>
-  </si>
-  <si>
-    <t>11:59</t>
-  </si>
-  <si>
-    <t>CO17070092</t>
-  </si>
-  <si>
-    <t>PQUE VACACIONAL EDEN</t>
-  </si>
-  <si>
-    <t>CH11708000</t>
-  </si>
-  <si>
-    <t>MARTIN HIERRO MANUEL</t>
-  </si>
-  <si>
-    <t>TRYP SN</t>
-  </si>
-  <si>
-    <t>2714 HTZ</t>
-  </si>
-  <si>
-    <t>CH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Telf.: 655460585  </t>
-  </si>
-  <si>
-    <t>12:33</t>
-  </si>
-  <si>
-    <t>PLATA</t>
-  </si>
-  <si>
-    <t>ET17070009</t>
-  </si>
-  <si>
-    <t>X</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>CO11703298</t>
-  </si>
-  <si>
-    <t>CORADO FREITAS DIOGO</t>
-  </si>
-  <si>
-    <t>CONCORDIA</t>
-  </si>
-  <si>
-    <t>OFICINA INDEFINIDA *</t>
-  </si>
-  <si>
-    <t>7028 HFP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(UP)  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Telf.: 684363902  </t>
-  </si>
-  <si>
-    <t>09:25</t>
-  </si>
-  <si>
-    <t>diogo.corado#gmail.com</t>
-  </si>
-  <si>
-    <t>GE17070015</t>
-  </si>
-  <si>
-    <t>RODEOS</t>
-  </si>
-  <si>
-    <t>MIRAMAR 908</t>
-  </si>
-  <si>
-    <t>C3</t>
-  </si>
-  <si>
-    <t>CO11706082</t>
-  </si>
-  <si>
-    <t>KUHLMANN FRANK</t>
-  </si>
-  <si>
-    <t>TROVADOR</t>
-  </si>
-  <si>
-    <t>GARAJE *</t>
-  </si>
-  <si>
-    <t>OPEL CORSA</t>
-  </si>
-  <si>
-    <t>8846 HYC</t>
-  </si>
-  <si>
-    <t>Telf.: +491715084197  +4915126425330</t>
-  </si>
-  <si>
-    <t>10:18</t>
-  </si>
-  <si>
-    <t>CO17070089</t>
-  </si>
-  <si>
-    <t>BEST SEMIRAMIS</t>
-  </si>
-  <si>
-    <t>H3</t>
-  </si>
-  <si>
-    <t>CO11708005</t>
-  </si>
-  <si>
-    <t>GOLEADO BOIX MANUEL VICENTE</t>
-  </si>
-  <si>
-    <t>HOTEL PUERTO DE LA CRUZ 218</t>
-  </si>
-  <si>
-    <t>VW CADDY</t>
-  </si>
-  <si>
-    <t>0849 JBD</t>
-  </si>
-  <si>
-    <t>Telf.: 669821334  600394501</t>
-  </si>
-  <si>
-    <t>09:16</t>
-  </si>
-  <si>
-    <t>CH17070012</t>
-  </si>
-  <si>
-    <t>HOTELPTO FIANZA</t>
-  </si>
-  <si>
-    <t>SAN ANTONIO 1102</t>
   </si>
   <si>
     <t>MENDAÑA TROTTER ALFREDO</t>
@@ -2546,70 +2555,70 @@
       </c>
       <c r="M3" s="4"/>
       <c r="N3" t="s" s="2">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="O3" t="s" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="P3" t="s" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Q3" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="R3" s="4"/>
       <c r="S3" t="s" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Y3" s="3">
         <v>42948</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" ht="12.75" customHeight="1">
       <c r="A4" t="s" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E4" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F4" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H4" s="3">
         <v>45193</v>
@@ -2642,102 +2651,102 @@
         <v>3</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C5" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D5" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E5" s="3">
         <v>45225</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G5" s="3">
         <v>45227</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I5" s="5">
         <v>3</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M5" s="4"/>
       <c r="N5" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O5" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P5" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q5" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R5" s="4"/>
       <c r="S5" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Y5" s="3">
         <v>42956</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" ht="12.75" customHeight="1">
       <c r="A6" s="4"/>
       <c r="B6" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D6" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E6" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H6" s="3">
         <v>45193</v>
@@ -2767,103 +2776,103 @@
     </row>
     <row r="7" ht="12.75" customHeight="1">
       <c r="A7" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C7" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D7" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E7" s="3">
         <v>45225</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G7" s="3">
         <v>45227</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I7" s="5">
         <v>6</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K7" s="4"/>
       <c r="L7" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M7" s="4"/>
       <c r="N7" t="s" s="2">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="O7" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P7" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q7" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R7" s="4"/>
       <c r="S7" t="s" s="2">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Y7" s="3">
         <v>42961</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" ht="12.75" customHeight="1">
       <c r="A8" s="4"/>
       <c r="B8" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s" s="2">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D8" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E8" t="s" s="2">
         <v>9</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H8" s="3">
         <v>45193</v>
@@ -2896,100 +2905,100 @@
         <v>3</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C9" t="s" s="2">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D9" t="s" s="2">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E9" s="3">
         <v>42961</v>
       </c>
       <c r="F9" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G9" s="3">
         <v>42965</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I9" s="5">
         <v>4</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K9" s="4"/>
       <c r="L9" t="s" s="2">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M9" s="4"/>
       <c r="N9" t="s" s="2">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="O9" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P9" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q9" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R9" s="4"/>
       <c r="S9" t="s" s="2">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Y9" s="3">
         <v>42961</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" ht="12.75" customHeight="1">
       <c r="A10" s="4"/>
       <c r="B10" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D10" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E10" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H10" s="3">
         <v>42960</v>
@@ -3019,28 +3028,28 @@
     </row>
     <row r="11" ht="12.75" customHeight="1">
       <c r="A11" t="s" s="2">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D11" t="s" s="2">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E11" s="3">
         <v>42961</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G11" s="3">
         <v>42966</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="I11" s="5">
         <v>6</v>
@@ -3049,75 +3058,75 @@
         <v>9</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="M11" s="4"/>
       <c r="N11" t="s" s="2">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="O11" t="s" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="P11" t="s" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Q11" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="R11" s="4"/>
       <c r="S11" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Y11" s="3">
         <v>42935</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" ht="12.75" customHeight="1">
       <c r="A12" s="4"/>
       <c r="B12" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D12" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E12" t="s" s="2">
         <v>9</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H12" s="3">
         <v>42960</v>
@@ -3147,28 +3156,28 @@
     </row>
     <row r="13" ht="12.75" customHeight="1">
       <c r="A13" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C13" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D13" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E13" s="3">
         <v>42961</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G13" s="3">
         <v>42968</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I13" s="5">
         <v>7</v>
@@ -3177,53 +3186,53 @@
         <v>9</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="L13" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="M13" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="N13" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="L13" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="N13" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="O13" t="s" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="P13" t="s" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Q13" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="R13" s="4"/>
       <c r="S13" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Y13" s="3">
         <v>42944</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="AB13" t="s" s="2">
         <v>6</v>
@@ -3232,22 +3241,22 @@
     <row r="14" ht="12.75" customHeight="1">
       <c r="A14" s="4"/>
       <c r="B14" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s" s="2">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D14" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E14" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H14" s="3">
         <v>42960</v>
@@ -3277,107 +3286,107 @@
     </row>
     <row r="15" ht="12.75" customHeight="1">
       <c r="A15" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D15" t="s" s="2">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E15" s="3">
         <v>42961</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="G15" s="3">
         <v>42965</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="I15" s="5">
         <v>5</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="O15" t="s" s="2">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="P15" t="s" s="2">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="Q15" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R15" s="4"/>
       <c r="S15" t="s" s="2">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Y15" s="3">
         <v>42961</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" ht="12.75" customHeight="1">
       <c r="A16" s="4"/>
       <c r="B16" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D16" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E16" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H16" s="3">
         <v>42960</v>
@@ -3407,28 +3416,28 @@
     </row>
     <row r="17" ht="12.75" customHeight="1">
       <c r="A17" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C17" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D17" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E17" s="3">
         <v>42961</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G17" s="3">
         <v>42964</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="I17" s="5">
         <v>4</v>
@@ -3440,72 +3449,72 @@
         <v>10</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="M17" s="4"/>
       <c r="N17" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="O17" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="P17" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="Q17" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R17" s="4"/>
       <c r="S17" t="s" s="2">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="U17" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="V17" t="s" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Y17" s="3">
         <v>42959</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" ht="12.75" customHeight="1">
       <c r="A18" s="4"/>
       <c r="B18" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s" s="2">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D18" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E18" t="s" s="2">
         <v>9</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H18" s="3">
         <v>42960</v>
@@ -3535,28 +3544,28 @@
     </row>
     <row r="19" ht="12.75" customHeight="1">
       <c r="A19" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C19" t="s" s="2">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D19" t="s" s="2">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E19" s="3">
         <v>42961</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G19" s="3">
         <v>42964</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I19" s="5">
         <v>3</v>
@@ -3568,72 +3577,72 @@
         <v>10</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="M19" s="4"/>
       <c r="N19" t="s" s="2">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="O19" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="P19" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="Q19" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R19" s="4"/>
       <c r="S19" t="s" s="2">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="U19" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="V19" t="s" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Y19" s="3">
         <v>42959</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="20" ht="12.75" customHeight="1">
       <c r="A20" s="4"/>
       <c r="B20" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D20" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E20" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H20" s="3">
         <v>42961</v>
@@ -3663,109 +3672,109 @@
     </row>
     <row r="21" ht="12.75" customHeight="1">
       <c r="A21" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C21" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D21" t="s" s="2">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E21" s="3">
         <v>42961</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G21" s="3">
         <v>42966</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="I21" s="5">
         <v>6</v>
       </c>
       <c r="J21" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="K21" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="L21" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="M21" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="N21" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="K21" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="L21" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>122</v>
-      </c>
       <c r="O21" t="s" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="P21" t="s" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Q21" t="s" s="2">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="R21" s="4"/>
       <c r="S21" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="U21" t="s" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="V21" t="s" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Y21" s="3">
         <v>42891</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" ht="12.75" customHeight="1">
       <c r="A22" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C22" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D22" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E22" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H22" s="3">
         <v>42960</v>
@@ -3795,105 +3804,105 @@
     </row>
     <row r="23" ht="12.75" customHeight="1">
       <c r="A23" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C23" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D23" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E23" s="3">
         <v>42961</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G23" s="3">
         <v>42966</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I23" s="5">
         <v>5</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="M23" s="4"/>
       <c r="N23" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="O23" t="s" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="P23" t="s" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Q23" t="s" s="2">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="R23" s="4"/>
       <c r="S23" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="U23" t="s" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="V23" t="s" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Y23" s="3">
         <v>42912</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" ht="12.75" customHeight="1">
       <c r="A24" s="4"/>
       <c r="B24" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C24" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D24" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E24" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H24" s="3">
         <v>42960</v>
@@ -3923,28 +3932,28 @@
     </row>
     <row r="25" ht="12.75" customHeight="1">
       <c r="A25" t="s" s="2">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C25" t="s" s="2">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D25" t="s" s="2">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E25" s="3">
         <v>42961</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G25" s="3">
         <v>42963</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I25" s="5">
         <v>2</v>
@@ -3953,75 +3962,75 @@
         <v>9</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="M25" s="4"/>
       <c r="N25" t="s" s="2">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="P25" t="s" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Q25" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R25" s="4"/>
       <c r="S25" t="s" s="2">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="U25" t="s" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="V25" t="s" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Y25" s="3">
         <v>42961</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26" ht="12.75" customHeight="1">
       <c r="A26" s="4"/>
       <c r="B26" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C26" t="s" s="2">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D26" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E26" t="s" s="2">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H26" s="3">
         <v>42959</v>
@@ -4051,28 +4060,28 @@
     </row>
     <row r="27" ht="12.75" customHeight="1">
       <c r="A27" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>4</v>
+        <v>157</v>
       </c>
       <c r="C27" t="s" s="2">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="D27" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E27" s="3">
         <v>42961</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="G27" s="3">
         <v>42966</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="I27" s="5">
         <v>6</v>
@@ -4081,75 +4090,75 @@
         <v>9</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="M27" s="4"/>
       <c r="N27" t="s" s="2">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="P27" t="s" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Q27" t="s" s="2">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="R27" s="4"/>
       <c r="S27" t="s" s="2">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="U27" t="s" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="V27" t="s" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Y27" s="3">
         <v>42955</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="28" ht="12.75" customHeight="1">
       <c r="A28" s="4"/>
       <c r="B28" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C28" t="s" s="2">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="D28" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E28" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H28" s="3">
         <v>42960</v>
@@ -4179,28 +4188,28 @@
     </row>
     <row r="29" ht="12.75" customHeight="1">
       <c r="A29" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="C29" t="s" s="2">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="D29" t="s" s="2">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E29" s="3">
         <v>42961</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="G29" s="3">
         <v>42963</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="I29" s="5">
         <v>3</v>
@@ -4212,72 +4221,72 @@
         <v>10</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="M29" s="4"/>
       <c r="N29" t="s" s="2">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="O29" t="s" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="P29" t="s" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Q29" t="s" s="2">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="R29" s="4"/>
       <c r="S29" t="s" s="2">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="T29" t="s" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="U29" t="s" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="V29" t="s" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Y29" s="3">
         <v>42961</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="30" ht="12.75" customHeight="1">
       <c r="A30" s="4"/>
       <c r="B30" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C30" t="s" s="2">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="D30" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E30" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H30" s="3">
         <v>42959</v>
@@ -4307,28 +4316,28 @@
     </row>
     <row r="31" ht="12.75" customHeight="1">
       <c r="A31" t="s" s="2">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="C31" t="s" s="2">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="D31" t="s" s="2">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="E31" s="3">
         <v>42961</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="G31" s="3">
         <v>42966</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="I31" s="5">
         <v>5</v>
@@ -4337,77 +4346,77 @@
         <v>9</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="O31" t="s" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="P31" t="s" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Q31" t="s" s="2">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="R31" s="4"/>
       <c r="S31" t="s" s="2">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="T31" t="s" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="U31" t="s" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="V31" t="s" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Y31" s="3">
         <v>42885</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="32" ht="12.75" customHeight="1">
       <c r="A32" s="4"/>
       <c r="B32" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C32" t="s" s="2">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="D32" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E32" t="s" s="2">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H32" s="3">
         <v>42958</v>
@@ -4437,105 +4446,105 @@
     </row>
     <row r="33" ht="12.75" customHeight="1">
       <c r="A33" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="C33" t="s" s="2">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="D33" t="s" s="2">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="E33" s="3">
         <v>42961</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="G33" s="3">
         <v>42965</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I33" s="5">
         <v>4</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="M33" s="4"/>
       <c r="N33" t="s" s="2">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="P33" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="Q33" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R33" s="4"/>
       <c r="S33" t="s" s="2">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="T33" t="s" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="U33" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="V33" t="s" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Y33" s="3">
         <v>42961</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AA33" t="s" s="2">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>188</v>
+        <v>191</v>
       </c>
     </row>
     <row r="34" ht="12.75" customHeight="1">
       <c r="A34" s="4"/>
       <c r="B34" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C34" t="s" s="2">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="D34" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E34" t="s" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H34" s="3">
         <v>42961</v>
@@ -4565,105 +4574,105 @@
     </row>
     <row r="35" ht="12.75" customHeight="1">
       <c r="A35" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="C35" t="s" s="2">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="D35" t="s" s="2">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="E35" s="3">
         <v>42961</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="G35" s="3">
         <v>42965</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="I35" s="5">
         <v>4</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="K35" t="s" s="2">
         <v>10</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="M35" s="4"/>
       <c r="N35" t="s" s="2">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P35" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q35" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R35" s="4"/>
       <c r="S35" t="s" s="2">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="T35" t="s" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="U35" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="V35" t="s" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Y35" s="3">
         <v>42961</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="36" ht="12.75" customHeight="1">
       <c r="A36" s="4"/>
       <c r="B36" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C36" t="s" s="2">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="D36" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E36" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H36" s="3">
         <v>42959</v>
@@ -4693,109 +4702,109 @@
     </row>
     <row r="37" ht="12.75" customHeight="1">
       <c r="A37" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="C37" t="s" s="2">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="D37" t="s" s="2">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="E37" s="3">
         <v>42961</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="G37" s="3">
         <v>42967</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="I37" s="5">
         <v>7</v>
       </c>
       <c r="J37" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="K37" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="L37" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="M37" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="N37" t="s" s="2">
         <v>204</v>
       </c>
-      <c r="K37" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="L37" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>201</v>
-      </c>
       <c r="O37" t="s" s="2">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="P37" t="s" s="2">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="Q37" t="s" s="2">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="R37" s="4"/>
       <c r="S37" t="s" s="2">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="T37" t="s" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="U37" t="s" s="2">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="V37" t="s" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Y37" s="3">
         <v>42944</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="38" ht="12.75" customHeight="1">
       <c r="A38" t="s" s="2">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C38" t="s" s="2">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="D38" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E38" t="s" s="2">
         <v>9</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H38" s="3">
         <v>42961</v>
@@ -4825,28 +4834,28 @@
     </row>
     <row r="39" ht="12.75" customHeight="1">
       <c r="A39" t="s" s="2">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="C39" t="s" s="2">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="D39" t="s" s="2">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="E39" s="3">
         <v>42961</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="G39" s="3">
         <v>42964</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="I39" s="5">
         <v>3</v>
@@ -4855,75 +4864,75 @@
         <v>9</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="M39" s="4"/>
       <c r="N39" t="s" s="2">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="O39" t="s" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="P39" t="s" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Q39" t="s" s="2">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="R39" s="4"/>
       <c r="S39" t="s" s="2">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="T39" t="s" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="U39" t="s" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="V39" t="s" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Y39" s="3">
         <v>42961</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AA39" t="s" s="2">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="40" ht="12.75" customHeight="1">
       <c r="A40" s="4"/>
       <c r="B40" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C40" t="s" s="2">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="D40" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E40" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H40" s="3">
         <v>42960</v>
@@ -4953,28 +4962,28 @@
     </row>
     <row r="41" ht="12.75" customHeight="1">
       <c r="A41" t="s" s="2">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="C41" t="s" s="2">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="D41" t="s" s="2">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E41" s="3">
         <v>42961</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G41" s="3">
         <v>42967</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="I41" s="5">
         <v>6</v>
@@ -4983,75 +4992,75 @@
         <v>9</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="M41" s="4"/>
       <c r="N41" t="s" s="2">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="P41" t="s" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Q41" t="s" s="2">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="R41" s="4"/>
       <c r="S41" t="s" s="2">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="T41" t="s" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="U41" t="s" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="V41" t="s" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Y41" s="3">
         <v>42948</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AA41" t="s" s="2">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="42" ht="12.75" customHeight="1">
       <c r="A42" s="4"/>
       <c r="B42" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C42" t="s" s="2">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="D42" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E42" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H42" s="3">
         <v>42961</v>
@@ -5081,107 +5090,107 @@
     </row>
     <row r="43" ht="12.75" customHeight="1">
       <c r="A43" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="C43" t="s" s="2">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="D43" t="s" s="2">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="E43" s="3">
         <v>42961</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="G43" s="3">
         <v>42971</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="I43" s="5">
         <v>10</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="K43" t="s" s="2">
         <v>10</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="M43" s="4"/>
       <c r="N43" t="s" s="2">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="P43" t="s" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Q43" t="s" s="2">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="R43" s="4"/>
       <c r="S43" t="s" s="2">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="T43" t="s" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="U43" t="s" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="V43" t="s" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Y43" s="3">
         <v>42961</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AA43" t="s" s="2">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="44" ht="12.75" customHeight="1">
       <c r="A44" t="s" s="2">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C44" t="s" s="2">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="D44" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E44" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H44" s="3">
         <v>42958</v>
@@ -5211,107 +5220,107 @@
     </row>
     <row r="45" ht="12.75" customHeight="1">
       <c r="A45" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="C45" t="s" s="2">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="D45" t="s" s="2">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="E45" s="3">
         <v>42961</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="G45" s="3">
         <v>42971</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="I45" s="5">
         <v>10</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="M45" s="4"/>
       <c r="N45" t="s" s="2">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="O45" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P45" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q45" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R45" s="4"/>
       <c r="S45" t="s" s="2">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="T45" t="s" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="U45" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="V45" t="s" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Y45" s="3">
         <v>42908</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AA45" t="s" s="2">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="46" ht="12.75" customHeight="1">
       <c r="A46" t="s" s="2">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C46" t="s" s="2">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="D46" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E46" t="s" s="2">
         <v>9</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H46" s="3">
         <v>42960</v>
@@ -5341,107 +5350,107 @@
     </row>
     <row r="47" ht="12.75" customHeight="1">
       <c r="A47" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="C47" t="s" s="2">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="D47" t="s" s="2">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="E47" s="3">
         <v>42962</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G47" s="3">
         <v>42964</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="I47" s="5">
         <v>3</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="O47" t="s" s="2">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="P47" t="s" s="2">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="Q47" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R47" s="4"/>
       <c r="S47" t="s" s="2">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="T47" t="s" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="U47" t="s" s="2">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="V47" t="s" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Y47" s="3">
         <v>42961</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AA47" t="s" s="2">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="48" ht="12.75" customHeight="1">
       <c r="A48" s="4"/>
       <c r="B48" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C48" t="s" s="2">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="D48" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E48" t="s" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H48" s="3">
         <v>42962</v>
@@ -5471,28 +5480,28 @@
     </row>
     <row r="49" ht="12.75" customHeight="1">
       <c r="A49" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="C49" t="s" s="2">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="D49" t="s" s="2">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="E49" s="3">
         <v>42962</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G49" s="3">
         <v>42964</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="I49" s="5">
         <v>3</v>
@@ -5504,72 +5513,72 @@
         <v>10</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="M49" s="4"/>
       <c r="N49" t="s" s="2">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="O49" t="s" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="P49" t="s" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Q49" t="s" s="2">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="R49" s="4"/>
       <c r="S49" t="s" s="2">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="T49" t="s" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="U49" t="s" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="V49" t="s" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Y49" s="3">
         <v>42961</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AA49" t="s" s="2">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="50" ht="12.75" customHeight="1">
       <c r="A50" s="4"/>
       <c r="B50" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C50" t="s" s="2">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="D50" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E50" t="s" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H50" s="3">
         <v>42962</v>
@@ -5599,105 +5608,105 @@
     </row>
     <row r="51" ht="12.75" customHeight="1">
       <c r="A51" t="s" s="2">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="C51" t="s" s="2">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="D51" t="s" s="2">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="E51" s="3">
         <v>42962</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G51" s="3">
         <v>42965</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I51" s="5">
         <v>3</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="M51" s="4"/>
       <c r="N51" t="s" s="2">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="O51" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P51" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q51" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R51" s="4"/>
       <c r="S51" t="s" s="2">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="T51" t="s" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="U51" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="V51" t="s" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Y51" s="3">
         <v>42961</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AA51" t="s" s="2">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="52" ht="12.75" customHeight="1">
       <c r="A52" s="4"/>
       <c r="B52" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C52" t="s" s="2">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="D52" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E52" t="s" s="2">
         <v>9</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H52" s="3">
         <v>42961</v>
@@ -5727,105 +5736,105 @@
     </row>
     <row r="53" ht="12.75" customHeight="1">
       <c r="A53" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="C53" t="s" s="2">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="D53" t="s" s="2">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="E53" s="3">
         <v>42962</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G53" s="3">
         <v>42966</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I53" s="5">
         <v>4</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K53" t="s" s="2">
         <v>10</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="M53" s="4"/>
       <c r="N53" t="s" s="2">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="O53" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P53" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q53" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R53" s="4"/>
       <c r="S53" t="s" s="2">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="T53" t="s" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="U53" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="V53" t="s" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Y53" s="3">
         <v>42961</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AA53" t="s" s="2">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="AB53" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="54" ht="12.75" customHeight="1">
       <c r="A54" s="4"/>
       <c r="B54" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C54" t="s" s="2">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="D54" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E54" t="s" s="2">
         <v>9</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H54" s="3">
         <v>42961</v>
@@ -5855,105 +5864,105 @@
     </row>
     <row r="55" ht="12.75" customHeight="1">
       <c r="A55" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="C55" t="s" s="2">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="D55" t="s" s="2">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="E55" s="3">
         <v>42962</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G55" s="3">
         <v>42965</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I55" s="5">
         <v>3</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="K55" t="s" s="2">
         <v>10</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="M55" s="4"/>
       <c r="N55" t="s" s="2">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="O55" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="P55" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="Q55" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R55" s="4"/>
       <c r="S55" t="s" s="2">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="T55" t="s" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="U55" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="V55" t="s" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Y55" s="3">
         <v>42962</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AA55" t="s" s="2">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="AB55" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="56" ht="12.75" customHeight="1">
       <c r="A56" s="4"/>
       <c r="B56" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C56" t="s" s="2">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="D56" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E56" t="s" s="2">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H56" s="3">
         <v>42960</v>
@@ -5983,105 +5992,105 @@
     </row>
     <row r="57" ht="12.75" customHeight="1">
       <c r="A57" t="s" s="2">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="C57" t="s" s="2">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="D57" t="s" s="2">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="E57" s="3">
         <v>42962</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G57" s="3">
         <v>42963</v>
       </c>
       <c r="H57" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I57" s="5">
         <v>1</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="M57" s="4"/>
       <c r="N57" t="s" s="2">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="O57" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="P57" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="Q57" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R57" s="4"/>
       <c r="S57" t="s" s="2">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="T57" t="s" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="U57" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="V57" t="s" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Y57" s="3">
         <v>42962</v>
       </c>
       <c r="Z57" t="s" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AA57" t="s" s="2">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="AB57" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="58" ht="12.75" customHeight="1">
       <c r="A58" s="4"/>
       <c r="B58" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C58" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D58" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E58" t="s" s="2">
         <v>9</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H58" s="3">
         <v>42960</v>
@@ -6111,81 +6120,81 @@
     </row>
     <row r="59" ht="12.75" customHeight="1">
       <c r="A59" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="C59" t="s" s="2">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="D59" t="s" s="2">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="E59" s="3">
         <v>42962</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G59" s="3">
         <v>42964</v>
       </c>
       <c r="H59" t="s" s="2">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="I59" s="5">
         <v>3</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="M59" s="4"/>
       <c r="N59" t="s" s="2">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="O59" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="P59" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="Q59" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R59" s="4"/>
       <c r="S59" t="s" s="2">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="T59" t="s" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="U59" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="V59" t="s" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Y59" s="3">
         <v>42962</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AA59" t="s" s="2">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="AB59" t="s" s="2">
         <v>6</v>
@@ -6194,22 +6203,22 @@
     <row r="60" ht="12.75" customHeight="1">
       <c r="A60" s="4"/>
       <c r="B60" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C60" t="s" s="2">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D60" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E60" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H60" s="3">
         <v>42960</v>
@@ -6239,105 +6248,105 @@
     </row>
     <row r="61" ht="12.75" customHeight="1">
       <c r="A61" t="s" s="2">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="C61" t="s" s="2">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="D61" t="s" s="2">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="E61" s="3">
         <v>42962</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G61" s="3">
         <v>42975</v>
       </c>
       <c r="H61" t="s" s="2">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="I61" s="5">
         <v>13</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="M61" s="4"/>
       <c r="N61" t="s" s="2">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="O61" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="P61" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="Q61" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R61" s="4"/>
       <c r="S61" t="s" s="2">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="T61" t="s" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="U61" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="V61" t="s" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="W61" t="s" s="2">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Y61" s="3">
         <v>42962</v>
       </c>
       <c r="Z61" t="s" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AA61" t="s" s="2">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="AB61" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="62" ht="12.75" customHeight="1">
       <c r="A62" s="4"/>
       <c r="B62" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C62" t="s" s="2">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="D62" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E62" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H62" s="3">
         <v>42961</v>
@@ -6367,81 +6376,81 @@
     </row>
     <row r="63" ht="12.75" customHeight="1">
       <c r="A63" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="C63" t="s" s="2">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="D63" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E63" s="3">
         <v>42962</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G63" s="3">
         <v>42966</v>
       </c>
       <c r="H63" t="s" s="2">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="I63" s="5">
         <v>4</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="M63" s="4"/>
       <c r="N63" t="s" s="2">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="O63" t="s" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="P63" t="s" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Q63" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R63" s="4"/>
       <c r="S63" t="s" s="2">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="T63" t="s" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="U63" t="s" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="V63" t="s" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="W63" t="s" s="2">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Y63" s="3">
         <v>42958</v>
       </c>
       <c r="Z63" t="s" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AA63" t="s" s="2">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="AB63" t="s" s="2">
         <v>6</v>
@@ -6450,22 +6459,22 @@
     <row r="64" ht="12.75" customHeight="1">
       <c r="A64" s="4"/>
       <c r="B64" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C64" t="s" s="2">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="D64" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E64" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H64" s="3">
         <v>42961</v>
@@ -6495,28 +6504,28 @@
     </row>
     <row r="65" ht="12.75" customHeight="1">
       <c r="A65" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="C65" t="s" s="2">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="D65" t="s" s="2">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="E65" s="3">
         <v>42962</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G65" s="3">
         <v>42967</v>
       </c>
       <c r="H65" t="s" s="2">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="I65" s="5">
         <v>5</v>
@@ -6528,74 +6537,74 @@
         <v>10</v>
       </c>
       <c r="L65" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="M65" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="N65" t="s" s="2">
         <v>324</v>
       </c>
-      <c r="M65" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>321</v>
-      </c>
       <c r="O65" t="s" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="P65" t="s" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Q65" t="s" s="2">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="R65" s="4"/>
       <c r="S65" t="s" s="2">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="T65" t="s" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="U65" t="s" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="V65" t="s" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="W65" t="s" s="2">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Y65" s="3">
         <v>42961</v>
       </c>
       <c r="Z65" t="s" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AA65" t="s" s="2">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="AB65" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="66" ht="12.75" customHeight="1">
       <c r="A66" s="4"/>
       <c r="B66" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C66" t="s" s="2">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="D66" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E66" t="s" s="2">
         <v>9</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H66" s="3">
         <v>42962</v>
@@ -6625,107 +6634,107 @@
     </row>
     <row r="67" ht="12.75" customHeight="1">
       <c r="A67" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="C67" t="s" s="2">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="D67" t="s" s="2">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="E67" s="3">
         <v>42962</v>
       </c>
       <c r="F67" t="s" s="2">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G67" s="3">
         <v>42964</v>
       </c>
       <c r="H67" t="s" s="2">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="I67" s="5">
         <v>3</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="O67" t="s" s="2">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="P67" t="s" s="2">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="Q67" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R67" s="4"/>
       <c r="S67" t="s" s="2">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="T67" t="s" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="U67" t="s" s="2">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="V67" t="s" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="W67" t="s" s="2">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Y67" s="3">
         <v>42961</v>
       </c>
       <c r="Z67" t="s" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AA67" t="s" s="2">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="AB67" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="68" ht="12.75" customHeight="1">
       <c r="A68" s="4"/>
       <c r="B68" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C68" t="s" s="2">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="D68" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E68" t="s" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F68" t="s" s="2">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H68" s="3">
         <v>42962</v>
@@ -6755,107 +6764,107 @@
     </row>
     <row r="69" ht="12.75" customHeight="1">
       <c r="A69" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="C69" t="s" s="2">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="D69" t="s" s="2">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="E69" s="3">
         <v>42962</v>
       </c>
       <c r="F69" t="s" s="2">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="G69" s="3">
         <v>42964</v>
       </c>
       <c r="H69" t="s" s="2">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="I69" s="5">
         <v>3</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="L69" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="M69" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="N69" t="s" s="2">
         <v>341</v>
       </c>
-      <c r="M69" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="N69" t="s" s="2">
-        <v>338</v>
-      </c>
       <c r="O69" t="s" s="2">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="P69" t="s" s="2">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="Q69" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R69" s="4"/>
       <c r="S69" t="s" s="2">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="T69" t="s" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="U69" t="s" s="2">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="V69" t="s" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="W69" t="s" s="2">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Y69" s="3">
         <v>42962</v>
       </c>
       <c r="Z69" t="s" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AA69" t="s" s="2">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="AB69" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="70" ht="12.75" customHeight="1">
       <c r="A70" s="4"/>
       <c r="B70" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C70" t="s" s="2">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="D70" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E70" t="s" s="2">
         <v>9</v>
       </c>
       <c r="F70" t="s" s="2">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H70" s="3">
         <v>42959</v>
@@ -6885,107 +6894,107 @@
     </row>
     <row r="71" ht="12.75" customHeight="1">
       <c r="A71" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="C71" t="s" s="2">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="D71" t="s" s="2">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="E71" s="3">
         <v>42962</v>
       </c>
       <c r="F71" t="s" s="2">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="G71" s="3">
         <v>42963</v>
       </c>
       <c r="H71" t="s" s="2">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="I71" s="5">
         <v>1</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K71" t="s" s="2">
         <v>10</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="M71" s="4"/>
       <c r="N71" t="s" s="2">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="O71" t="s" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="P71" t="s" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Q71" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R71" s="4"/>
       <c r="S71" t="s" s="2">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="T71" t="s" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="U71" t="s" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="V71" t="s" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="W71" t="s" s="2">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Y71" s="3">
         <v>42961</v>
       </c>
       <c r="Z71" t="s" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AA71" t="s" s="2">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="AB71" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="72" ht="12.75" customHeight="1">
       <c r="A72" t="s" s="2">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C72" t="s" s="2">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="D72" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E72" t="s" s="2">
         <v>9</v>
       </c>
       <c r="F72" t="s" s="2">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H72" s="3">
         <v>42961</v>
@@ -7015,103 +7024,103 @@
     </row>
     <row r="73" ht="12.75" customHeight="1">
       <c r="A73" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="C73" t="s" s="2">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="D73" t="s" s="2">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="E73" s="3">
         <v>42962</v>
       </c>
       <c r="F73" t="s" s="2">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="G73" s="3">
         <v>42968</v>
       </c>
       <c r="H73" t="s" s="2">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="I73" s="5">
         <v>7</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="K73" s="4"/>
       <c r="L73" t="s" s="2">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="M73" s="4"/>
       <c r="N73" t="s" s="2">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="O73" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="P73" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="Q73" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R73" s="4"/>
       <c r="S73" t="s" s="2">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="T73" t="s" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="U73" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="V73" t="s" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="W73" t="s" s="2">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Y73" s="3">
         <v>42962</v>
       </c>
       <c r="Z73" t="s" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AA73" t="s" s="2">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="AB73" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="74" ht="12.75" customHeight="1">
       <c r="A74" s="4"/>
       <c r="B74" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C74" t="s" s="2">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="D74" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E74" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F74" t="s" s="2">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H74" s="3">
         <v>42959</v>
@@ -7141,105 +7150,105 @@
     </row>
     <row r="75" ht="12.75" customHeight="1">
       <c r="A75" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="C75" t="s" s="2">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="D75" t="s" s="2">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="E75" s="3">
         <v>42962</v>
       </c>
       <c r="F75" t="s" s="2">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="G75" s="3">
         <v>42973</v>
       </c>
       <c r="H75" t="s" s="2">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="I75" s="5">
         <v>12</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="K75" t="s" s="2">
         <v>10</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="M75" s="4"/>
       <c r="N75" t="s" s="2">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="O75" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="P75" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="Q75" t="s" s="2">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="R75" s="4"/>
       <c r="S75" t="s" s="2">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="T75" t="s" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="U75" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="V75" t="s" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="W75" t="s" s="2">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="X75" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Y75" s="3">
         <v>42952</v>
       </c>
       <c r="Z75" t="s" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AA75" t="s" s="2">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="AB75" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="76" ht="12.75" customHeight="1">
       <c r="A76" s="4"/>
       <c r="B76" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C76" t="s" s="2">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="D76" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E76" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F76" t="s" s="2">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H76" s="3">
         <v>42962</v>
@@ -7269,109 +7278,109 @@
     </row>
     <row r="77" ht="12.75" customHeight="1">
       <c r="A77" t="s" s="2">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="C77" t="s" s="2">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="D77" t="s" s="2">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="E77" s="3">
         <v>42962</v>
       </c>
       <c r="F77" t="s" s="2">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="G77" s="3">
         <v>42979</v>
       </c>
       <c r="H77" t="s" s="2">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="I77" s="5">
         <v>17</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="K77" t="s" s="2">
         <v>10</v>
       </c>
       <c r="L77" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="M77" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="N77" t="s" s="2">
         <v>377</v>
       </c>
-      <c r="M77" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="N77" t="s" s="2">
-        <v>374</v>
-      </c>
       <c r="O77" t="s" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="P77" t="s" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Q77" t="s" s="2">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="R77" s="4"/>
       <c r="S77" t="s" s="2">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="T77" t="s" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="U77" t="s" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="V77" t="s" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="W77" t="s" s="2">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="X77" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Y77" s="3">
         <v>42947</v>
       </c>
       <c r="Z77" t="s" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AA77" t="s" s="2">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="AB77" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="78" ht="12.75" customHeight="1">
       <c r="A78" t="s" s="2">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C78" t="s" s="2">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="D78" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E78" t="s" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F78" t="s" s="2">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H78" s="3">
         <v>42962</v>
@@ -7401,103 +7410,103 @@
     </row>
     <row r="79" ht="12.75" customHeight="1">
       <c r="A79" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="C79" t="s" s="2">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="D79" t="s" s="2">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="E79" s="3">
         <v>42962</v>
       </c>
       <c r="F79" t="s" s="2">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="G79" s="3">
         <v>42969</v>
       </c>
       <c r="H79" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I79" s="5">
         <v>7</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K79" s="4"/>
       <c r="L79" t="s" s="2">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="M79" s="4"/>
       <c r="N79" t="s" s="2">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="O79" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P79" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q79" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R79" s="4"/>
       <c r="S79" t="s" s="2">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="T79" t="s" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="U79" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="V79" t="s" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="W79" t="s" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="X79" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Y79" s="3">
         <v>42962</v>
       </c>
       <c r="Z79" t="s" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AA79" t="s" s="2">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="AB79" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="80" ht="12.75" customHeight="1">
       <c r="A80" s="4"/>
       <c r="B80" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C80" t="s" s="2">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="D80" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E80" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F80" t="s" s="2">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="G80" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H80" s="3">
         <v>42961</v>
@@ -7527,109 +7536,109 @@
     </row>
     <row r="81" ht="12.75" customHeight="1">
       <c r="A81" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="C81" t="s" s="2">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="D81" t="s" s="2">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="E81" s="3">
         <v>42962</v>
       </c>
       <c r="F81" t="s" s="2">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="G81" s="3">
         <v>42966</v>
       </c>
       <c r="H81" t="s" s="2">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="I81" s="5">
         <v>5</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="K81" t="s" s="2">
         <v>10</v>
       </c>
       <c r="L81" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="M81" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="N81" t="s" s="2">
         <v>396</v>
       </c>
-      <c r="M81" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="N81" t="s" s="2">
-        <v>393</v>
-      </c>
       <c r="O81" t="s" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="P81" t="s" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Q81" t="s" s="2">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="R81" s="4"/>
       <c r="S81" t="s" s="2">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="T81" t="s" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="U81" t="s" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="V81" t="s" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="W81" t="s" s="2">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="X81" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Y81" s="3">
         <v>42962</v>
       </c>
       <c r="Z81" t="s" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AA81" t="s" s="2">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="AB81" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="82" ht="12.75" customHeight="1">
       <c r="A82" t="s" s="2">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C82" t="s" s="2">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="D82" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E82" t="s" s="2">
         <v>9</v>
       </c>
       <c r="F82" t="s" s="2">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="G82" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H82" s="3">
         <v>42961</v>
@@ -7659,107 +7668,107 @@
     </row>
     <row r="83" ht="12.75" customHeight="1">
       <c r="A83" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="C83" t="s" s="2">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="D83" t="s" s="2">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="E83" s="3">
         <v>42962</v>
       </c>
       <c r="F83" t="s" s="2">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="G83" s="3">
         <v>42978</v>
       </c>
       <c r="H83" t="s" s="2">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="I83" s="5">
         <v>16</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="M83" s="4"/>
       <c r="N83" t="s" s="2">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="O83" t="s" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="P83" t="s" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Q83" t="s" s="2">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="R83" s="4"/>
       <c r="S83" t="s" s="2">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="T83" t="s" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="U83" t="s" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="V83" t="s" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="W83" t="s" s="2">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="X83" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Y83" s="3">
         <v>42962</v>
       </c>
       <c r="Z83" t="s" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AA83" t="s" s="2">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="AB83" t="s" s="2">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="84" ht="12.75" customHeight="1">
       <c r="A84" t="s" s="2">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C84" t="s" s="2">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="D84" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E84" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F84" t="s" s="2">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="G84" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H84" s="3">
         <v>42962</v>
@@ -7789,7 +7798,7 @@
     </row>
     <row r="85" ht="12.75" customHeight="1">
       <c r="A85" t="s" s="2">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="B85" s="5">
         <v>41</v>
@@ -7823,7 +7832,7 @@
     </row>
     <row r="86" ht="12.75" customHeight="1">
       <c r="A86" t="s" s="2">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="B86" s="4"/>
       <c r="C86" s="4"/>

--- a/Wassauto/Excels/4resentrega_Only_Data .xlsx
+++ b/Wassauto/Excels/4resentrega_Only_Data .xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eci\project\AutosPlaza\Wassauto\Excels\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BE462DE-4F54-4239-AD48-CF8A5DB4A1FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="4410" yWindow="2355" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="418">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1169" uniqueCount="418">
   <si>
     <t>LISTADO DE ENTREGAS</t>
   </si>
@@ -28,18 +37,12 @@
     <t>CO11707029</t>
   </si>
   <si>
-    <t>CORUJEIRA ORTEGA DANIEL</t>
-  </si>
-  <si>
     <t>TURQUESA</t>
   </si>
   <si>
     <t>13:15</t>
   </si>
   <si>
-    <t>13:16</t>
-  </si>
-  <si>
     <t>HOTELPTO</t>
   </si>
   <si>
@@ -49,18 +52,12 @@
     <t>6507 GXJ</t>
   </si>
   <si>
-    <t>DANIEL CORUJEIRA</t>
-  </si>
-  <si>
     <t>CO</t>
   </si>
   <si>
     <t xml:space="preserve">(YARIS)  </t>
   </si>
   <si>
-    <t>Telf.: +34671152525</t>
-  </si>
-  <si>
     <t>OFI RESERVA :</t>
   </si>
   <si>
@@ -82,9 +79,6 @@
     <t>BLANCO</t>
   </si>
   <si>
-    <t>daniel#corujeira.es</t>
-  </si>
-  <si>
     <t>Última Devolución:  :</t>
   </si>
   <si>
@@ -157,24 +151,12 @@
     <t>VE11708001</t>
   </si>
   <si>
-    <t>ALEJANDRO</t>
-  </si>
-  <si>
     <t>SAN FELIPE 203</t>
   </si>
   <si>
     <t>VENEZUELA</t>
   </si>
   <si>
-    <t>9340 LML</t>
-  </si>
-  <si>
-    <t>ALE</t>
-  </si>
-  <si>
-    <t>Telf.: 669968954</t>
-  </si>
-  <si>
     <t>10:00</t>
   </si>
   <si>
@@ -1265,32 +1247,53 @@
   </si>
   <si>
     <t>Page -1 of 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CABANILLAS FERNANDO </t>
+  </si>
+  <si>
+    <t>CABANILLAS FERNANDO</t>
+  </si>
+  <si>
+    <t>Telf.: 606935841</t>
+  </si>
+  <si>
+    <t>AUTOSPLAZA SAUL</t>
+  </si>
+  <si>
+    <t>saul@autosplaza.es</t>
+  </si>
+  <si>
+    <t>ROMARES DANIA</t>
+  </si>
+  <si>
+    <t>Telf.: +34664249786</t>
+  </si>
+  <si>
+    <t>17:16</t>
+  </si>
+  <si>
+    <t>6773 KLM</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
-    <numFmt numFmtId="0" formatCode="General"/>
-    <numFmt numFmtId="59" formatCode="dd/mm/yyyy"/>
-    <numFmt numFmtId="60" formatCode="h:mm&quot; &quot;"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="h:mm&quot; &quot;"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <sz val="15"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1331,59 +1334,127 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+  <cellXfs count="8">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="59" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="60" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffaaaaaa"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFAAAAAA"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1585,7 +1656,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1604,7 +1675,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1634,7 +1705,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1660,7 +1731,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1686,7 +1757,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1712,7 +1783,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1738,7 +1809,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1764,7 +1835,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1790,7 +1861,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1816,7 +1887,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1842,7 +1913,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1855,9 +1926,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -1874,7 +1951,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1893,7 +1970,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1919,7 +1996,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1945,7 +2022,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1971,7 +2048,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1997,7 +2074,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2023,7 +2100,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2049,7 +2126,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2075,7 +2152,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2101,7 +2178,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2127,7 +2204,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2140,9 +2217,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -2156,7 +2239,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -2175,7 +2258,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2205,7 +2288,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2231,7 +2314,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2257,7 +2340,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2283,7 +2366,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2309,7 +2392,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2335,7 +2418,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2361,7 +2444,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2387,7 +2470,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2413,7 +2496,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2426,39 +2509,49 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB86"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.83333" defaultRowHeight="12.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="7.85546875" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="28" width="22" style="1" customWidth="1"/>
-    <col min="29" max="16384" width="7.85156" style="1" customWidth="1"/>
+    <col min="29" max="29" width="7.85546875" style="1" customWidth="1"/>
+    <col min="30" max="16384" width="7.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="12.75" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="3">
         <v>45107</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="4"/>
@@ -2486,7 +2579,7 @@
       <c r="AA1" s="4"/>
       <c r="AB1" s="4"/>
     </row>
-    <row r="2" ht="13.65" customHeight="1">
+    <row r="2" spans="1:28" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -2516,109 +2609,109 @@
       <c r="AA2" s="4"/>
       <c r="AB2" s="4"/>
     </row>
-    <row r="3" ht="12.75" customHeight="1">
-      <c r="A3" t="s" s="2">
+    <row r="3" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C3" t="s" s="2">
+      <c r="C3" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D3" t="s" s="2">
+      <c r="E3" s="3">
+        <v>45204</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="3">
-        <v>45256</v>
-      </c>
-      <c r="F3" t="s" s="2">
-        <v>7</v>
-      </c>
       <c r="G3" s="3">
-        <v>45258</v>
-      </c>
-      <c r="H3" t="s" s="2">
-        <v>8</v>
+        <v>45204</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>416</v>
       </c>
       <c r="I3" s="5">
         <v>3</v>
       </c>
-      <c r="J3" t="s" s="2">
+      <c r="J3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K3" t="s" s="2">
+      <c r="M3" s="4"/>
+      <c r="N3" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="O3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L3" t="s" s="2">
+      <c r="P3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M3" s="4"/>
-      <c r="N3" t="s" s="2">
+      <c r="R3" s="4"/>
+      <c r="S3" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="T3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="O3" t="s" s="2">
+      <c r="U3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="V3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="P3" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="Q3" t="s" s="2">
+      <c r="W3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="R3" s="4"/>
-      <c r="S3" t="s" s="2">
+      <c r="X3" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="T3" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="U3" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="V3" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="W3" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="X3" t="s" s="2">
-        <v>19</v>
       </c>
       <c r="Y3" s="3">
         <v>42948</v>
       </c>
-      <c r="Z3" t="s" s="2">
+      <c r="Z3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB3" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="AA3" t="s" s="2">
+      <c r="D4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="AB3" t="s" s="2">
+      <c r="E4" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="4" ht="12.75" customHeight="1">
-      <c r="A4" t="s" s="2">
+      <c r="F4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B4" t="s" s="2">
+      <c r="G4" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="C4" t="s" s="2">
-        <v>25</v>
-      </c>
-      <c r="D4" t="s" s="2">
-        <v>26</v>
-      </c>
-      <c r="E4" t="s" s="2">
-        <v>27</v>
-      </c>
-      <c r="F4" t="s" s="2">
-        <v>28</v>
-      </c>
-      <c r="G4" t="s" s="2">
-        <v>29</v>
       </c>
       <c r="H4" s="3">
         <v>45193</v>
@@ -2646,107 +2739,107 @@
       <c r="AA4" s="4"/>
       <c r="AB4" s="4"/>
     </row>
-    <row r="5" ht="12.75" customHeight="1">
-      <c r="A5" t="s" s="2">
+    <row r="5" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B5" t="s" s="2">
-        <v>30</v>
-      </c>
-      <c r="C5" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="D5" t="s" s="2">
-        <v>32</v>
+      <c r="B5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="E5" s="3">
         <v>45225</v>
       </c>
-      <c r="F5" t="s" s="2">
-        <v>33</v>
+      <c r="F5" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="G5" s="3">
         <v>45227</v>
       </c>
-      <c r="H5" t="s" s="2">
-        <v>34</v>
+      <c r="H5" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="I5" s="5">
         <v>3</v>
       </c>
-      <c r="J5" t="s" s="2">
+      <c r="J5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M5" s="4"/>
+      <c r="N5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R5" s="4"/>
+      <c r="S5" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="K5" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="L5" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="M5" s="4"/>
-      <c r="N5" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="O5" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="P5" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Q5" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="R5" s="4"/>
-      <c r="S5" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T5" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="U5" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V5" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="W5" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="X5" t="s" s="2">
-        <v>19</v>
+      <c r="T5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="U5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="V5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="W5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="X5" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="Y5" s="3">
         <v>42956</v>
       </c>
-      <c r="Z5" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AA5" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB5" t="s" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" ht="12.75" customHeight="1">
+      <c r="Z5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB5" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4"/>
-      <c r="B6" t="s" s="2">
+      <c r="B6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="C6" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="D6" t="s" s="2">
-        <v>26</v>
-      </c>
-      <c r="E6" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="F6" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="G6" t="s" s="2">
-        <v>29</v>
       </c>
       <c r="H6" s="3">
         <v>45193</v>
@@ -2774,105 +2867,105 @@
       <c r="AA6" s="4"/>
       <c r="AB6" s="4"/>
     </row>
-    <row r="7" ht="12.75" customHeight="1">
-      <c r="A7" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="B7" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="C7" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="D7" t="s" s="2">
-        <v>49</v>
+    <row r="7" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="E7" s="3">
         <v>45225</v>
       </c>
-      <c r="F7" t="s" s="2">
-        <v>33</v>
+      <c r="F7" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="G7" s="3">
         <v>45227</v>
       </c>
-      <c r="H7" t="s" s="2">
-        <v>34</v>
+      <c r="H7" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="I7" s="5">
         <v>6</v>
       </c>
-      <c r="J7" t="s" s="2">
-        <v>50</v>
+      <c r="J7" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="K7" s="4"/>
-      <c r="L7" t="s" s="2">
-        <v>51</v>
+      <c r="L7" s="2" t="s">
+        <v>417</v>
       </c>
       <c r="M7" s="4"/>
-      <c r="N7" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="O7" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="P7" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Q7" t="s" s="2">
-        <v>39</v>
+      <c r="N7" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="R7" s="4"/>
-      <c r="S7" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="T7" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="U7" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V7" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="W7" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="X7" t="s" s="2">
-        <v>19</v>
+      <c r="S7" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="T7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="U7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="V7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="W7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="X7" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="Y7" s="3">
         <v>42961</v>
       </c>
-      <c r="Z7" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AA7" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="AB7" t="s" s="2">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" ht="12.75" customHeight="1">
+      <c r="Z7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB7" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4"/>
-      <c r="B8" t="s" s="2">
+      <c r="B8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G8" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="C8" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="D8" t="s" s="2">
-        <v>26</v>
-      </c>
-      <c r="E8" t="s" s="2">
-        <v>9</v>
-      </c>
-      <c r="F8" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="G8" t="s" s="2">
-        <v>29</v>
       </c>
       <c r="H8" s="3">
         <v>45193</v>
@@ -2900,105 +2993,105 @@
       <c r="AA8" s="4"/>
       <c r="AB8" s="4"/>
     </row>
-    <row r="9" ht="12.75" customHeight="1">
-      <c r="A9" t="s" s="2">
+    <row r="9" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B9" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="C9" t="s" s="2">
-        <v>58</v>
-      </c>
-      <c r="D9" t="s" s="2">
-        <v>59</v>
+      <c r="B9" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>50</v>
       </c>
       <c r="E9" s="3">
         <v>42961</v>
       </c>
-      <c r="F9" t="s" s="2">
-        <v>33</v>
+      <c r="F9" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="G9" s="3">
         <v>42965</v>
       </c>
-      <c r="H9" t="s" s="2">
-        <v>34</v>
+      <c r="H9" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="I9" s="5">
         <v>4</v>
       </c>
-      <c r="J9" t="s" s="2">
-        <v>50</v>
+      <c r="J9" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="K9" s="4"/>
-      <c r="L9" t="s" s="2">
-        <v>60</v>
+      <c r="L9" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="M9" s="4"/>
-      <c r="N9" t="s" s="2">
-        <v>58</v>
-      </c>
-      <c r="O9" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="P9" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Q9" t="s" s="2">
-        <v>39</v>
+      <c r="N9" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="P9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q9" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="R9" s="4"/>
-      <c r="S9" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="T9" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="U9" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V9" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="W9" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="X9" t="s" s="2">
-        <v>19</v>
+      <c r="S9" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="T9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="U9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="V9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="W9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="X9" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="Y9" s="3">
         <v>42961</v>
       </c>
-      <c r="Z9" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AA9" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="AB9" t="s" s="2">
+      <c r="Z9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA9" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB9" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="4"/>
+      <c r="B10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="10" ht="12.75" customHeight="1">
-      <c r="A10" s="4"/>
-      <c r="B10" t="s" s="2">
+      <c r="F10" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G10" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="C10" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="D10" t="s" s="2">
-        <v>26</v>
-      </c>
-      <c r="E10" t="s" s="2">
-        <v>27</v>
-      </c>
-      <c r="F10" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="G10" t="s" s="2">
-        <v>29</v>
       </c>
       <c r="H10" s="3">
         <v>42960</v>
@@ -3026,107 +3119,107 @@
       <c r="AA10" s="4"/>
       <c r="AB10" s="4"/>
     </row>
-    <row r="11" ht="12.75" customHeight="1">
-      <c r="A11" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="B11" t="s" s="2">
-        <v>66</v>
-      </c>
-      <c r="C11" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="D11" t="s" s="2">
-        <v>68</v>
+    <row r="11" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>59</v>
       </c>
       <c r="E11" s="3">
         <v>42961</v>
       </c>
-      <c r="F11" t="s" s="2">
-        <v>33</v>
+      <c r="F11" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="G11" s="3">
         <v>42966</v>
       </c>
-      <c r="H11" t="s" s="2">
-        <v>69</v>
+      <c r="H11" s="2" t="s">
+        <v>60</v>
       </c>
       <c r="I11" s="5">
         <v>6</v>
       </c>
-      <c r="J11" t="s" s="2">
-        <v>9</v>
-      </c>
-      <c r="K11" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="L11" t="s" s="2">
-        <v>71</v>
+      <c r="J11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="M11" s="4"/>
-      <c r="N11" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="O11" t="s" s="2">
+      <c r="N11" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="O11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q11" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="R11" s="4"/>
+      <c r="S11" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="T11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="U11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="V11" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="P11" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="Q11" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="R11" s="4"/>
-      <c r="S11" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T11" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="U11" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="V11" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="W11" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X11" t="s" s="2">
-        <v>19</v>
+      <c r="W11" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="X11" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="Y11" s="3">
         <v>42935</v>
       </c>
-      <c r="Z11" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AA11" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB11" t="s" s="2">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" ht="12.75" customHeight="1">
+      <c r="Z11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA11" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB11" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4"/>
-      <c r="B12" t="s" s="2">
+      <c r="B12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G12" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="C12" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="D12" t="s" s="2">
-        <v>26</v>
-      </c>
-      <c r="E12" t="s" s="2">
-        <v>9</v>
-      </c>
-      <c r="F12" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G12" t="s" s="2">
-        <v>29</v>
       </c>
       <c r="H12" s="3">
         <v>42960</v>
@@ -3154,109 +3247,109 @@
       <c r="AA12" s="4"/>
       <c r="AB12" s="4"/>
     </row>
-    <row r="13" ht="12.75" customHeight="1">
-      <c r="A13" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="B13" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="C13" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="D13" t="s" s="2">
-        <v>81</v>
+    <row r="13" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>72</v>
       </c>
       <c r="E13" s="3">
         <v>42961</v>
       </c>
-      <c r="F13" t="s" s="2">
-        <v>33</v>
+      <c r="F13" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="G13" s="3">
         <v>42968</v>
       </c>
-      <c r="H13" t="s" s="2">
-        <v>34</v>
+      <c r="H13" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="I13" s="5">
         <v>7</v>
       </c>
-      <c r="J13" t="s" s="2">
-        <v>9</v>
-      </c>
-      <c r="K13" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="L13" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="N13" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="O13" t="s" s="2">
+      <c r="J13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="O13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="R13" s="4"/>
+      <c r="S13" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="T13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="U13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="V13" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="P13" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="Q13" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="R13" s="4"/>
-      <c r="S13" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="T13" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="U13" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="V13" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="W13" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X13" t="s" s="2">
-        <v>19</v>
+      <c r="W13" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="X13" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="Y13" s="3">
         <v>42944</v>
       </c>
-      <c r="Z13" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AA13" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AB13" t="s" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" ht="12.75" customHeight="1">
+      <c r="Z13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA13" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB13" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4"/>
-      <c r="B14" t="s" s="2">
+      <c r="B14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G14" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="C14" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="D14" t="s" s="2">
-        <v>26</v>
-      </c>
-      <c r="E14" t="s" s="2">
-        <v>27</v>
-      </c>
-      <c r="F14" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="G14" t="s" s="2">
-        <v>29</v>
       </c>
       <c r="H14" s="3">
         <v>42960</v>
@@ -3284,109 +3377,109 @@
       <c r="AA14" s="4"/>
       <c r="AB14" s="4"/>
     </row>
-    <row r="15" ht="12.75" customHeight="1">
-      <c r="A15" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="B15" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="C15" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="D15" t="s" s="2">
-        <v>91</v>
+    <row r="15" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>82</v>
       </c>
       <c r="E15" s="3">
         <v>42961</v>
       </c>
-      <c r="F15" t="s" s="2">
-        <v>92</v>
+      <c r="F15" s="2" t="s">
+        <v>83</v>
       </c>
       <c r="G15" s="3">
         <v>42965</v>
       </c>
-      <c r="H15" t="s" s="2">
-        <v>93</v>
+      <c r="H15" s="2" t="s">
+        <v>84</v>
       </c>
       <c r="I15" s="5">
         <v>5</v>
       </c>
-      <c r="J15" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="K15" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="L15" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="N15" t="s" s="2">
+      <c r="J15" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="O15" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="P15" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q15" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R15" s="4"/>
+      <c r="S15" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="O15" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="P15" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="Q15" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="R15" s="4"/>
-      <c r="S15" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="T15" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="U15" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="V15" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="W15" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="X15" t="s" s="2">
-        <v>19</v>
+      <c r="T15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="U15" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="V15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="W15" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="X15" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="Y15" s="3">
         <v>42961</v>
       </c>
-      <c r="Z15" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AA15" t="s" s="2">
+      <c r="Z15" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA15" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="AB15" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="4"/>
+      <c r="B16" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="AB15" t="s" s="2">
+      <c r="D16" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="16" ht="12.75" customHeight="1">
-      <c r="A16" s="4"/>
-      <c r="B16" t="s" s="2">
+      <c r="F16" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="G16" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="C16" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="D16" t="s" s="2">
-        <v>26</v>
-      </c>
-      <c r="E16" t="s" s="2">
-        <v>27</v>
-      </c>
-      <c r="F16" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="G16" t="s" s="2">
-        <v>29</v>
       </c>
       <c r="H16" s="3">
         <v>42960</v>
@@ -3414,107 +3507,107 @@
       <c r="AA16" s="4"/>
       <c r="AB16" s="4"/>
     </row>
-    <row r="17" ht="12.75" customHeight="1">
-      <c r="A17" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="B17" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="C17" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="D17" t="s" s="2">
-        <v>105</v>
+    <row r="17" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>96</v>
       </c>
       <c r="E17" s="3">
         <v>42961</v>
       </c>
-      <c r="F17" t="s" s="2">
-        <v>54</v>
+      <c r="F17" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="G17" s="3">
         <v>42964</v>
       </c>
-      <c r="H17" t="s" s="2">
-        <v>93</v>
+      <c r="H17" s="2" t="s">
+        <v>84</v>
       </c>
       <c r="I17" s="5">
         <v>4</v>
       </c>
-      <c r="J17" t="s" s="2">
-        <v>9</v>
-      </c>
-      <c r="K17" t="s" s="2">
-        <v>10</v>
-      </c>
-      <c r="L17" t="s" s="2">
-        <v>106</v>
+      <c r="J17" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>97</v>
       </c>
       <c r="M17" s="4"/>
-      <c r="N17" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="O17" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="P17" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="Q17" t="s" s="2">
-        <v>39</v>
+      <c r="N17" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="O17" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="P17" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q17" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="R17" s="4"/>
-      <c r="S17" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="T17" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="U17" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="V17" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="W17" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X17" t="s" s="2">
-        <v>19</v>
+      <c r="S17" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="T17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="U17" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="V17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="W17" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="X17" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="Y17" s="3">
         <v>42959</v>
       </c>
-      <c r="Z17" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AA17" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="AB17" t="s" s="2">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="18" ht="12.75" customHeight="1">
+      <c r="Z17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA17" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="AB17" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4"/>
-      <c r="B18" t="s" s="2">
+      <c r="B18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="G18" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="C18" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="D18" t="s" s="2">
-        <v>26</v>
-      </c>
-      <c r="E18" t="s" s="2">
-        <v>9</v>
-      </c>
-      <c r="F18" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="G18" t="s" s="2">
-        <v>29</v>
       </c>
       <c r="H18" s="3">
         <v>42960</v>
@@ -3542,107 +3635,107 @@
       <c r="AA18" s="4"/>
       <c r="AB18" s="4"/>
     </row>
-    <row r="19" ht="12.75" customHeight="1">
-      <c r="A19" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="B19" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="C19" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="D19" t="s" s="2">
-        <v>114</v>
+    <row r="19" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="E19" s="3">
         <v>42961</v>
       </c>
-      <c r="F19" t="s" s="2">
-        <v>54</v>
+      <c r="F19" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="G19" s="3">
         <v>42964</v>
       </c>
-      <c r="H19" t="s" s="2">
-        <v>34</v>
+      <c r="H19" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="I19" s="5">
         <v>3</v>
       </c>
-      <c r="J19" t="s" s="2">
-        <v>9</v>
-      </c>
-      <c r="K19" t="s" s="2">
-        <v>10</v>
-      </c>
-      <c r="L19" t="s" s="2">
-        <v>115</v>
+      <c r="J19" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>106</v>
       </c>
       <c r="M19" s="4"/>
-      <c r="N19" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="O19" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="P19" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="Q19" t="s" s="2">
-        <v>39</v>
+      <c r="N19" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="O19" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="P19" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q19" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="R19" s="4"/>
-      <c r="S19" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="T19" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="U19" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="V19" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="W19" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X19" t="s" s="2">
-        <v>19</v>
+      <c r="S19" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="T19" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="U19" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="V19" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="W19" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="X19" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="Y19" s="3">
         <v>42959</v>
       </c>
-      <c r="Z19" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AA19" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="AB19" t="s" s="2">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="20" ht="12.75" customHeight="1">
+      <c r="Z19" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA19" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB19" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="4"/>
-      <c r="B20" t="s" s="2">
+      <c r="B20" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="G20" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="C20" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="D20" t="s" s="2">
-        <v>26</v>
-      </c>
-      <c r="E20" t="s" s="2">
-        <v>27</v>
-      </c>
-      <c r="F20" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="G20" t="s" s="2">
-        <v>29</v>
       </c>
       <c r="H20" s="3">
         <v>42961</v>
@@ -3670,111 +3763,111 @@
       <c r="AA20" s="4"/>
       <c r="AB20" s="4"/>
     </row>
-    <row r="21" ht="12.75" customHeight="1">
-      <c r="A21" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="B21" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="C21" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="D21" t="s" s="2">
-        <v>125</v>
+    <row r="21" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>116</v>
       </c>
       <c r="E21" s="3">
         <v>42961</v>
       </c>
-      <c r="F21" t="s" s="2">
-        <v>54</v>
+      <c r="F21" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="G21" s="3">
         <v>42966</v>
       </c>
-      <c r="H21" t="s" s="2">
-        <v>93</v>
+      <c r="H21" s="2" t="s">
+        <v>84</v>
       </c>
       <c r="I21" s="5">
         <v>6</v>
       </c>
-      <c r="J21" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="K21" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="L21" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="O21" t="s" s="2">
+      <c r="J21" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="M21" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="N21" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="O21" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P21" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q21" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="R21" s="4"/>
+      <c r="S21" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="T21" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="U21" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="V21" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="P21" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="Q21" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="R21" s="4"/>
-      <c r="S21" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="T21" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="U21" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="V21" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="W21" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X21" t="s" s="2">
-        <v>19</v>
+      <c r="W21" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="X21" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="Y21" s="3">
         <v>42891</v>
       </c>
-      <c r="Z21" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AA21" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="AB21" t="s" s="2">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="22" ht="12.75" customHeight="1">
-      <c r="A22" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="B22" t="s" s="2">
+      <c r="Z21" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA21" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="AB21" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="G22" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="C22" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="D22" t="s" s="2">
-        <v>26</v>
-      </c>
-      <c r="E22" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="F22" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="G22" t="s" s="2">
-        <v>29</v>
       </c>
       <c r="H22" s="3">
         <v>42960</v>
@@ -3802,107 +3895,107 @@
       <c r="AA22" s="4"/>
       <c r="AB22" s="4"/>
     </row>
-    <row r="23" ht="12.75" customHeight="1">
-      <c r="A23" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="B23" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="C23" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="D23" t="s" s="2">
-        <v>138</v>
+    <row r="23" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>129</v>
       </c>
       <c r="E23" s="3">
         <v>42961</v>
       </c>
-      <c r="F23" t="s" s="2">
-        <v>54</v>
+      <c r="F23" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="G23" s="3">
         <v>42966</v>
       </c>
-      <c r="H23" t="s" s="2">
-        <v>34</v>
+      <c r="H23" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="I23" s="5">
         <v>5</v>
       </c>
-      <c r="J23" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="K23" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="L23" t="s" s="2">
-        <v>141</v>
+      <c r="J23" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>132</v>
       </c>
       <c r="M23" s="4"/>
-      <c r="N23" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="O23" t="s" s="2">
+      <c r="N23" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="O23" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P23" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q23" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="R23" s="4"/>
+      <c r="S23" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="T23" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="U23" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="V23" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="P23" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="Q23" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="R23" s="4"/>
-      <c r="S23" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="T23" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="U23" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="V23" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="W23" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X23" t="s" s="2">
-        <v>19</v>
+      <c r="W23" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="X23" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="Y23" s="3">
         <v>42912</v>
       </c>
-      <c r="Z23" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AA23" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="AB23" t="s" s="2">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" ht="12.75" customHeight="1">
+      <c r="Z23" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA23" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="AB23" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="4"/>
-      <c r="B24" t="s" s="2">
+      <c r="B24" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="G24" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="C24" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="D24" t="s" s="2">
-        <v>26</v>
-      </c>
-      <c r="E24" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="F24" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="G24" t="s" s="2">
-        <v>29</v>
       </c>
       <c r="H24" s="3">
         <v>42960</v>
@@ -3930,107 +4023,107 @@
       <c r="AA24" s="4"/>
       <c r="AB24" s="4"/>
     </row>
-    <row r="25" ht="12.75" customHeight="1">
-      <c r="A25" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="B25" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="C25" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="D25" t="s" s="2">
-        <v>149</v>
+    <row r="25" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>140</v>
       </c>
       <c r="E25" s="3">
         <v>42961</v>
       </c>
-      <c r="F25" t="s" s="2">
-        <v>54</v>
+      <c r="F25" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="G25" s="3">
         <v>42963</v>
       </c>
-      <c r="H25" t="s" s="2">
-        <v>34</v>
+      <c r="H25" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="I25" s="5">
         <v>2</v>
       </c>
-      <c r="J25" t="s" s="2">
-        <v>9</v>
-      </c>
-      <c r="K25" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="L25" t="s" s="2">
-        <v>151</v>
+      <c r="J25" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>142</v>
       </c>
       <c r="M25" s="4"/>
-      <c r="N25" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="O25" t="s" s="2">
+      <c r="N25" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="O25" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P25" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q25" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R25" s="4"/>
+      <c r="S25" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="T25" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="U25" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="V25" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="P25" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="Q25" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="R25" s="4"/>
-      <c r="S25" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="T25" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="U25" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="V25" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="W25" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X25" t="s" s="2">
-        <v>19</v>
+      <c r="W25" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="X25" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="Y25" s="3">
         <v>42961</v>
       </c>
-      <c r="Z25" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AA25" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="AB25" t="s" s="2">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="26" ht="12.75" customHeight="1">
+      <c r="Z25" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA25" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="AB25" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="4"/>
-      <c r="B26" t="s" s="2">
+      <c r="B26" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="G26" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="C26" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="D26" t="s" s="2">
-        <v>26</v>
-      </c>
-      <c r="E26" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="F26" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="G26" t="s" s="2">
-        <v>29</v>
       </c>
       <c r="H26" s="3">
         <v>42959</v>
@@ -4058,107 +4151,107 @@
       <c r="AA26" s="4"/>
       <c r="AB26" s="4"/>
     </row>
-    <row r="27" ht="12.75" customHeight="1">
-      <c r="A27" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="B27" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="C27" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="D27" t="s" s="2">
-        <v>111</v>
+    <row r="27" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>102</v>
       </c>
       <c r="E27" s="3">
         <v>42961</v>
       </c>
-      <c r="F27" t="s" s="2">
-        <v>159</v>
+      <c r="F27" s="2" t="s">
+        <v>150</v>
       </c>
       <c r="G27" s="3">
         <v>42966</v>
       </c>
-      <c r="H27" t="s" s="2">
-        <v>93</v>
+      <c r="H27" s="2" t="s">
+        <v>84</v>
       </c>
       <c r="I27" s="5">
         <v>6</v>
       </c>
-      <c r="J27" t="s" s="2">
-        <v>9</v>
-      </c>
-      <c r="K27" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="L27" t="s" s="2">
-        <v>160</v>
+      <c r="J27" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>151</v>
       </c>
       <c r="M27" s="4"/>
-      <c r="N27" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="O27" t="s" s="2">
+      <c r="N27" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="O27" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P27" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q27" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="R27" s="4"/>
+      <c r="S27" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="T27" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="U27" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="V27" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="P27" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="Q27" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="R27" s="4"/>
-      <c r="S27" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="T27" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="U27" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="V27" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="W27" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X27" t="s" s="2">
-        <v>19</v>
+      <c r="W27" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="X27" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="Y27" s="3">
         <v>42955</v>
       </c>
-      <c r="Z27" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AA27" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="AB27" t="s" s="2">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="28" ht="12.75" customHeight="1">
+      <c r="Z27" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA27" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="AB27" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="28" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="4"/>
-      <c r="B28" t="s" s="2">
+      <c r="B28" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="G28" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="C28" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="D28" t="s" s="2">
-        <v>26</v>
-      </c>
-      <c r="E28" t="s" s="2">
-        <v>27</v>
-      </c>
-      <c r="F28" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="G28" t="s" s="2">
-        <v>29</v>
       </c>
       <c r="H28" s="3">
         <v>42960</v>
@@ -4186,107 +4279,107 @@
       <c r="AA28" s="4"/>
       <c r="AB28" s="4"/>
     </row>
-    <row r="29" ht="12.75" customHeight="1">
-      <c r="A29" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="B29" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="C29" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="D29" t="s" s="2">
-        <v>169</v>
+    <row r="29" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>160</v>
       </c>
       <c r="E29" s="3">
         <v>42961</v>
       </c>
-      <c r="F29" t="s" s="2">
-        <v>159</v>
+      <c r="F29" s="2" t="s">
+        <v>150</v>
       </c>
       <c r="G29" s="3">
         <v>42963</v>
       </c>
-      <c r="H29" t="s" s="2">
-        <v>93</v>
+      <c r="H29" s="2" t="s">
+        <v>84</v>
       </c>
       <c r="I29" s="5">
         <v>3</v>
       </c>
-      <c r="J29" t="s" s="2">
-        <v>9</v>
-      </c>
-      <c r="K29" t="s" s="2">
+      <c r="J29" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L29" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="M29" s="4"/>
+      <c r="N29" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="O29" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L29" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="M29" s="4"/>
-      <c r="N29" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="O29" t="s" s="2">
+      <c r="P29" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q29" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="R29" s="4"/>
+      <c r="S29" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="T29" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="U29" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="V29" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="P29" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="Q29" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="R29" s="4"/>
-      <c r="S29" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="T29" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="U29" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="V29" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="W29" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X29" t="s" s="2">
-        <v>19</v>
+      <c r="W29" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="X29" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="Y29" s="3">
         <v>42961</v>
       </c>
-      <c r="Z29" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AA29" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="AB29" t="s" s="2">
+      <c r="Z29" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA29" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="AB29" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="4"/>
+      <c r="B30" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E30" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="30" ht="12.75" customHeight="1">
-      <c r="A30" s="4"/>
-      <c r="B30" t="s" s="2">
+      <c r="F30" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="G30" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="C30" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="D30" t="s" s="2">
-        <v>26</v>
-      </c>
-      <c r="E30" t="s" s="2">
-        <v>27</v>
-      </c>
-      <c r="F30" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="G30" t="s" s="2">
-        <v>29</v>
       </c>
       <c r="H30" s="3">
         <v>42959</v>
@@ -4314,109 +4407,109 @@
       <c r="AA30" s="4"/>
       <c r="AB30" s="4"/>
     </row>
-    <row r="31" ht="12.75" customHeight="1">
-      <c r="A31" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="B31" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="C31" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="D31" t="s" s="2">
-        <v>178</v>
+    <row r="31" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>169</v>
       </c>
       <c r="E31" s="3">
         <v>42961</v>
       </c>
-      <c r="F31" t="s" s="2">
-        <v>159</v>
+      <c r="F31" s="2" t="s">
+        <v>150</v>
       </c>
       <c r="G31" s="3">
         <v>42966</v>
       </c>
-      <c r="H31" t="s" s="2">
-        <v>159</v>
+      <c r="H31" s="2" t="s">
+        <v>150</v>
       </c>
       <c r="I31" s="5">
         <v>5</v>
       </c>
-      <c r="J31" t="s" s="2">
-        <v>9</v>
-      </c>
-      <c r="K31" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="L31" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="O31" t="s" s="2">
+      <c r="J31" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K31" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="L31" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="M31" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="N31" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="O31" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P31" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q31" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="R31" s="4"/>
+      <c r="S31" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="T31" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="U31" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="V31" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="P31" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="Q31" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="R31" s="4"/>
-      <c r="S31" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="T31" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="U31" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="V31" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="W31" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="X31" t="s" s="2">
-        <v>19</v>
+      <c r="W31" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="X31" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="Y31" s="3">
         <v>42885</v>
       </c>
-      <c r="Z31" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AA31" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="AB31" t="s" s="2">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="32" ht="12.75" customHeight="1">
+      <c r="Z31" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA31" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="AB31" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="4"/>
-      <c r="B32" t="s" s="2">
+      <c r="B32" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="G32" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="C32" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="D32" t="s" s="2">
-        <v>26</v>
-      </c>
-      <c r="E32" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="F32" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="G32" t="s" s="2">
-        <v>29</v>
       </c>
       <c r="H32" s="3">
         <v>42958</v>
@@ -4444,107 +4537,107 @@
       <c r="AA32" s="4"/>
       <c r="AB32" s="4"/>
     </row>
-    <row r="33" ht="12.75" customHeight="1">
-      <c r="A33" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="B33" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="C33" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="D33" t="s" s="2">
-        <v>186</v>
+    <row r="33" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>177</v>
       </c>
       <c r="E33" s="3">
         <v>42961</v>
       </c>
-      <c r="F33" t="s" s="2">
-        <v>187</v>
+      <c r="F33" s="2" t="s">
+        <v>178</v>
       </c>
       <c r="G33" s="3">
         <v>42965</v>
       </c>
-      <c r="H33" t="s" s="2">
-        <v>34</v>
+      <c r="H33" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="I33" s="5">
         <v>4</v>
       </c>
-      <c r="J33" t="s" s="2">
-        <v>27</v>
-      </c>
-      <c r="K33" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="L33" t="s" s="2">
-        <v>188</v>
+      <c r="J33" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K33" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="L33" s="2" t="s">
+        <v>179</v>
       </c>
       <c r="M33" s="4"/>
-      <c r="N33" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="O33" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="P33" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="Q33" t="s" s="2">
-        <v>39</v>
+      <c r="N33" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="O33" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="P33" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q33" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="R33" s="4"/>
-      <c r="S33" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="T33" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="U33" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="V33" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="W33" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X33" t="s" s="2">
-        <v>19</v>
+      <c r="S33" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="T33" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="U33" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="V33" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="W33" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="X33" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="Y33" s="3">
         <v>42961</v>
       </c>
-      <c r="Z33" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AA33" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="AB33" t="s" s="2">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="34" ht="12.75" customHeight="1">
+      <c r="Z33" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA33" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="AB33" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="34" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="4"/>
-      <c r="B34" t="s" s="2">
+      <c r="B34" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="G34" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="C34" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="D34" t="s" s="2">
-        <v>26</v>
-      </c>
-      <c r="E34" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="F34" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="G34" t="s" s="2">
-        <v>29</v>
       </c>
       <c r="H34" s="3">
         <v>42961</v>
@@ -4572,107 +4665,107 @@
       <c r="AA34" s="4"/>
       <c r="AB34" s="4"/>
     </row>
-    <row r="35" ht="12.75" customHeight="1">
-      <c r="A35" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="B35" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="C35" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="D35" t="s" s="2">
-        <v>196</v>
+    <row r="35" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>187</v>
       </c>
       <c r="E35" s="3">
         <v>42961</v>
       </c>
-      <c r="F35" t="s" s="2">
-        <v>197</v>
+      <c r="F35" s="2" t="s">
+        <v>188</v>
       </c>
       <c r="G35" s="3">
         <v>42965</v>
       </c>
-      <c r="H35" t="s" s="2">
-        <v>197</v>
+      <c r="H35" s="2" t="s">
+        <v>188</v>
       </c>
       <c r="I35" s="5">
         <v>4</v>
       </c>
-      <c r="J35" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="K35" t="s" s="2">
-        <v>10</v>
-      </c>
-      <c r="L35" t="s" s="2">
-        <v>199</v>
+      <c r="J35" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="K35" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L35" s="2" t="s">
+        <v>190</v>
       </c>
       <c r="M35" s="4"/>
-      <c r="N35" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="O35" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="P35" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Q35" t="s" s="2">
-        <v>39</v>
+      <c r="N35" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="O35" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="P35" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q35" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="R35" s="4"/>
-      <c r="S35" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="T35" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="U35" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V35" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="W35" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="X35" t="s" s="2">
-        <v>19</v>
+      <c r="S35" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="T35" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="U35" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="V35" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="W35" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="X35" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="Y35" s="3">
         <v>42961</v>
       </c>
-      <c r="Z35" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AA35" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="AB35" t="s" s="2">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="36" ht="12.75" customHeight="1">
+      <c r="Z35" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA35" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="AB35" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="36" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="4"/>
-      <c r="B36" t="s" s="2">
+      <c r="B36" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="G36" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="C36" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="D36" t="s" s="2">
-        <v>26</v>
-      </c>
-      <c r="E36" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="F36" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="G36" t="s" s="2">
-        <v>29</v>
       </c>
       <c r="H36" s="3">
         <v>42959</v>
@@ -4700,111 +4793,111 @@
       <c r="AA36" s="4"/>
       <c r="AB36" s="4"/>
     </row>
-    <row r="37" ht="12.75" customHeight="1">
-      <c r="A37" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="B37" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="C37" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="D37" t="s" s="2">
-        <v>205</v>
+    <row r="37" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>196</v>
       </c>
       <c r="E37" s="3">
         <v>42961</v>
       </c>
-      <c r="F37" t="s" s="2">
-        <v>206</v>
+      <c r="F37" s="2" t="s">
+        <v>197</v>
       </c>
       <c r="G37" s="3">
         <v>42967</v>
       </c>
-      <c r="H37" t="s" s="2">
-        <v>93</v>
+      <c r="H37" s="2" t="s">
+        <v>84</v>
       </c>
       <c r="I37" s="5">
         <v>7</v>
       </c>
-      <c r="J37" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="K37" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="L37" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="O37" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="P37" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="Q37" t="s" s="2">
-        <v>210</v>
+      <c r="J37" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="K37" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="L37" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="M37" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="N37" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="O37" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="P37" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q37" s="2" t="s">
+        <v>201</v>
       </c>
       <c r="R37" s="4"/>
-      <c r="S37" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="T37" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="U37" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="V37" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="W37" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X37" t="s" s="2">
-        <v>19</v>
+      <c r="S37" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="T37" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="U37" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="V37" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="W37" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="X37" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="Y37" s="3">
         <v>42944</v>
       </c>
-      <c r="Z37" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AA37" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="AB37" t="s" s="2">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="38" ht="12.75" customHeight="1">
-      <c r="A38" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="B38" t="s" s="2">
+      <c r="Z37" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA37" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="AB37" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="38" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="G38" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="C38" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="D38" t="s" s="2">
-        <v>26</v>
-      </c>
-      <c r="E38" t="s" s="2">
-        <v>9</v>
-      </c>
-      <c r="F38" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="G38" t="s" s="2">
-        <v>29</v>
       </c>
       <c r="H38" s="3">
         <v>42961</v>
@@ -4832,107 +4925,107 @@
       <c r="AA38" s="4"/>
       <c r="AB38" s="4"/>
     </row>
-    <row r="39" ht="12.75" customHeight="1">
-      <c r="A39" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="B39" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="C39" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="D39" t="s" s="2">
-        <v>219</v>
+    <row r="39" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>210</v>
       </c>
       <c r="E39" s="3">
         <v>42961</v>
       </c>
-      <c r="F39" t="s" s="2">
-        <v>220</v>
+      <c r="F39" s="2" t="s">
+        <v>211</v>
       </c>
       <c r="G39" s="3">
         <v>42964</v>
       </c>
-      <c r="H39" t="s" s="2">
-        <v>159</v>
+      <c r="H39" s="2" t="s">
+        <v>150</v>
       </c>
       <c r="I39" s="5">
         <v>3</v>
       </c>
-      <c r="J39" t="s" s="2">
-        <v>9</v>
-      </c>
-      <c r="K39" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="L39" t="s" s="2">
-        <v>222</v>
+      <c r="J39" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K39" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="L39" s="2" t="s">
+        <v>213</v>
       </c>
       <c r="M39" s="4"/>
-      <c r="N39" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="O39" t="s" s="2">
+      <c r="N39" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="O39" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P39" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q39" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="R39" s="4"/>
+      <c r="S39" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="T39" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="U39" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="V39" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="P39" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="Q39" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="R39" s="4"/>
-      <c r="S39" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="T39" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="U39" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="V39" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="W39" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X39" t="s" s="2">
-        <v>19</v>
+      <c r="W39" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="X39" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="Y39" s="3">
         <v>42961</v>
       </c>
-      <c r="Z39" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AA39" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="AB39" t="s" s="2">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="40" ht="12.75" customHeight="1">
+      <c r="Z39" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA39" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="AB39" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="40" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="4"/>
-      <c r="B40" t="s" s="2">
+      <c r="B40" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="G40" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="C40" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="D40" t="s" s="2">
-        <v>26</v>
-      </c>
-      <c r="E40" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="F40" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="G40" t="s" s="2">
-        <v>29</v>
       </c>
       <c r="H40" s="3">
         <v>42960</v>
@@ -4960,107 +5053,107 @@
       <c r="AA40" s="4"/>
       <c r="AB40" s="4"/>
     </row>
-    <row r="41" ht="12.75" customHeight="1">
-      <c r="A41" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="B41" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="C41" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="D41" t="s" s="2">
-        <v>145</v>
+    <row r="41" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>136</v>
       </c>
       <c r="E41" s="3">
         <v>42961</v>
       </c>
-      <c r="F41" t="s" s="2">
-        <v>69</v>
+      <c r="F41" s="2" t="s">
+        <v>60</v>
       </c>
       <c r="G41" s="3">
         <v>42967</v>
       </c>
-      <c r="H41" t="s" s="2">
-        <v>69</v>
+      <c r="H41" s="2" t="s">
+        <v>60</v>
       </c>
       <c r="I41" s="5">
         <v>6</v>
       </c>
-      <c r="J41" t="s" s="2">
-        <v>9</v>
-      </c>
-      <c r="K41" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="L41" t="s" s="2">
-        <v>230</v>
+      <c r="J41" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K41" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="L41" s="2" t="s">
+        <v>221</v>
       </c>
       <c r="M41" s="4"/>
-      <c r="N41" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="O41" t="s" s="2">
+      <c r="N41" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="O41" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P41" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q41" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="R41" s="4"/>
+      <c r="S41" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="T41" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="U41" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="V41" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="P41" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="Q41" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="R41" s="4"/>
-      <c r="S41" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="T41" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="U41" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="V41" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="W41" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="X41" t="s" s="2">
-        <v>19</v>
+      <c r="W41" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="X41" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="Y41" s="3">
         <v>42948</v>
       </c>
-      <c r="Z41" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AA41" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="AB41" t="s" s="2">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="42" ht="12.75" customHeight="1">
+      <c r="Z41" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA41" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="AB41" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="42" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="4"/>
-      <c r="B42" t="s" s="2">
+      <c r="B42" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="G42" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="C42" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="D42" t="s" s="2">
-        <v>26</v>
-      </c>
-      <c r="E42" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="F42" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="G42" t="s" s="2">
-        <v>29</v>
       </c>
       <c r="H42" s="3">
         <v>42961</v>
@@ -5088,109 +5181,109 @@
       <c r="AA42" s="4"/>
       <c r="AB42" s="4"/>
     </row>
-    <row r="43" ht="12.75" customHeight="1">
-      <c r="A43" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="B43" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="C43" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="D43" t="s" s="2">
-        <v>238</v>
+    <row r="43" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>229</v>
       </c>
       <c r="E43" s="3">
         <v>42961</v>
       </c>
-      <c r="F43" t="s" s="2">
-        <v>239</v>
+      <c r="F43" s="2" t="s">
+        <v>230</v>
       </c>
       <c r="G43" s="3">
         <v>42971</v>
       </c>
-      <c r="H43" t="s" s="2">
-        <v>240</v>
+      <c r="H43" s="2" t="s">
+        <v>231</v>
       </c>
       <c r="I43" s="5">
         <v>10</v>
       </c>
-      <c r="J43" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="K43" t="s" s="2">
+      <c r="J43" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="K43" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L43" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="M43" s="4"/>
+      <c r="N43" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="O43" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L43" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="M43" s="4"/>
-      <c r="N43" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="O43" t="s" s="2">
+      <c r="P43" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q43" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="R43" s="4"/>
+      <c r="S43" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="T43" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="U43" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="V43" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="P43" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="Q43" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="R43" s="4"/>
-      <c r="S43" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="T43" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="U43" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="V43" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="W43" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X43" t="s" s="2">
-        <v>19</v>
+      <c r="W43" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="X43" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="Y43" s="3">
         <v>42961</v>
       </c>
-      <c r="Z43" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AA43" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="AB43" t="s" s="2">
+      <c r="Z43" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA43" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="AB43" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="44" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E44" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="44" ht="12.75" customHeight="1">
-      <c r="A44" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="B44" t="s" s="2">
+      <c r="F44" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="G44" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="C44" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="D44" t="s" s="2">
-        <v>26</v>
-      </c>
-      <c r="E44" t="s" s="2">
-        <v>27</v>
-      </c>
-      <c r="F44" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="G44" t="s" s="2">
-        <v>29</v>
       </c>
       <c r="H44" s="3">
         <v>42958</v>
@@ -5218,109 +5311,109 @@
       <c r="AA44" s="4"/>
       <c r="AB44" s="4"/>
     </row>
-    <row r="45" ht="12.75" customHeight="1">
-      <c r="A45" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="B45" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="C45" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="D45" t="s" s="2">
-        <v>250</v>
+    <row r="45" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>241</v>
       </c>
       <c r="E45" s="3">
         <v>42961</v>
       </c>
-      <c r="F45" t="s" s="2">
-        <v>251</v>
+      <c r="F45" s="2" t="s">
+        <v>242</v>
       </c>
       <c r="G45" s="3">
         <v>42971</v>
       </c>
-      <c r="H45" t="s" s="2">
-        <v>240</v>
+      <c r="H45" s="2" t="s">
+        <v>231</v>
       </c>
       <c r="I45" s="5">
         <v>10</v>
       </c>
-      <c r="J45" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="K45" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="L45" t="s" s="2">
-        <v>252</v>
+      <c r="J45" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K45" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="L45" s="2" t="s">
+        <v>243</v>
       </c>
       <c r="M45" s="4"/>
-      <c r="N45" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="O45" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="P45" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Q45" t="s" s="2">
-        <v>39</v>
+      <c r="N45" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="O45" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="P45" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q45" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="R45" s="4"/>
-      <c r="S45" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="T45" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="U45" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V45" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="W45" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="X45" t="s" s="2">
-        <v>19</v>
+      <c r="S45" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="T45" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="U45" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="V45" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="W45" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="X45" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="Y45" s="3">
         <v>42908</v>
       </c>
-      <c r="Z45" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AA45" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="AB45" t="s" s="2">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="46" ht="12.75" customHeight="1">
-      <c r="A46" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="B46" t="s" s="2">
+      <c r="Z45" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA45" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="AB45" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="46" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="G46" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="C46" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="D46" t="s" s="2">
-        <v>26</v>
-      </c>
-      <c r="E46" t="s" s="2">
-        <v>9</v>
-      </c>
-      <c r="F46" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="G46" t="s" s="2">
-        <v>29</v>
       </c>
       <c r="H46" s="3">
         <v>42960</v>
@@ -5348,109 +5441,109 @@
       <c r="AA46" s="4"/>
       <c r="AB46" s="4"/>
     </row>
-    <row r="47" ht="12.75" customHeight="1">
-      <c r="A47" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="B47" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="C47" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="D47" t="s" s="2">
-        <v>260</v>
+    <row r="47" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>251</v>
       </c>
       <c r="E47" s="3">
         <v>42962</v>
       </c>
-      <c r="F47" t="s" s="2">
-        <v>33</v>
+      <c r="F47" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="G47" s="3">
         <v>42964</v>
       </c>
-      <c r="H47" t="s" s="2">
-        <v>93</v>
+      <c r="H47" s="2" t="s">
+        <v>84</v>
       </c>
       <c r="I47" s="5">
         <v>3</v>
       </c>
-      <c r="J47" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="K47" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="L47" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="O47" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="P47" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="Q47" t="s" s="2">
-        <v>39</v>
+      <c r="J47" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="K47" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="L47" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="M47" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="N47" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="O47" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="P47" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q47" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="R47" s="4"/>
-      <c r="S47" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="T47" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="U47" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="V47" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="W47" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="X47" t="s" s="2">
-        <v>19</v>
+      <c r="S47" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="T47" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="U47" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="V47" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="W47" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="X47" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="Y47" s="3">
         <v>42961</v>
       </c>
-      <c r="Z47" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AA47" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="AB47" t="s" s="2">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="48" ht="12.75" customHeight="1">
+      <c r="Z47" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA47" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="AB47" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="48" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="4"/>
-      <c r="B48" t="s" s="2">
+      <c r="B48" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="G48" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="C48" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="D48" t="s" s="2">
-        <v>26</v>
-      </c>
-      <c r="E48" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="F48" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="G48" t="s" s="2">
-        <v>29</v>
       </c>
       <c r="H48" s="3">
         <v>42962</v>
@@ -5478,107 +5571,107 @@
       <c r="AA48" s="4"/>
       <c r="AB48" s="4"/>
     </row>
-    <row r="49" ht="12.75" customHeight="1">
-      <c r="A49" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="B49" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="C49" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="D49" t="s" s="2">
-        <v>267</v>
+    <row r="49" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>258</v>
       </c>
       <c r="E49" s="3">
         <v>42962</v>
       </c>
-      <c r="F49" t="s" s="2">
-        <v>33</v>
+      <c r="F49" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="G49" s="3">
         <v>42964</v>
       </c>
-      <c r="H49" t="s" s="2">
-        <v>93</v>
+      <c r="H49" s="2" t="s">
+        <v>84</v>
       </c>
       <c r="I49" s="5">
         <v>3</v>
       </c>
-      <c r="J49" t="s" s="2">
-        <v>9</v>
-      </c>
-      <c r="K49" t="s" s="2">
+      <c r="J49" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K49" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L49" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="M49" s="4"/>
+      <c r="N49" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="O49" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L49" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="M49" s="4"/>
-      <c r="N49" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="O49" t="s" s="2">
+      <c r="P49" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q49" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="R49" s="4"/>
+      <c r="S49" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="T49" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="U49" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="V49" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="P49" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="Q49" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="R49" s="4"/>
-      <c r="S49" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="T49" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="U49" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="V49" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="W49" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X49" t="s" s="2">
-        <v>19</v>
+      <c r="W49" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="X49" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="Y49" s="3">
         <v>42961</v>
       </c>
-      <c r="Z49" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AA49" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="AB49" t="s" s="2">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="50" ht="12.75" customHeight="1">
+      <c r="Z49" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA49" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="AB49" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="50" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="4"/>
-      <c r="B50" t="s" s="2">
+      <c r="B50" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="G50" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="C50" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="D50" t="s" s="2">
-        <v>26</v>
-      </c>
-      <c r="E50" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="F50" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="G50" t="s" s="2">
-        <v>29</v>
       </c>
       <c r="H50" s="3">
         <v>42962</v>
@@ -5606,107 +5699,107 @@
       <c r="AA50" s="4"/>
       <c r="AB50" s="4"/>
     </row>
-    <row r="51" ht="12.75" customHeight="1">
-      <c r="A51" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="B51" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="C51" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="D51" t="s" s="2">
-        <v>276</v>
+    <row r="51" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>267</v>
       </c>
       <c r="E51" s="3">
         <v>42962</v>
       </c>
-      <c r="F51" t="s" s="2">
-        <v>33</v>
+      <c r="F51" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="G51" s="3">
         <v>42965</v>
       </c>
-      <c r="H51" t="s" s="2">
-        <v>34</v>
+      <c r="H51" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="I51" s="5">
         <v>3</v>
       </c>
-      <c r="J51" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="K51" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="L51" t="s" s="2">
-        <v>277</v>
+      <c r="J51" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K51" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="L51" s="2" t="s">
+        <v>268</v>
       </c>
       <c r="M51" s="4"/>
-      <c r="N51" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="O51" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="P51" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Q51" t="s" s="2">
-        <v>39</v>
+      <c r="N51" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="O51" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="P51" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q51" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="R51" s="4"/>
-      <c r="S51" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="T51" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="U51" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V51" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="W51" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="X51" t="s" s="2">
-        <v>19</v>
+      <c r="S51" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="T51" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="U51" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="V51" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="W51" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="X51" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="Y51" s="3">
         <v>42961</v>
       </c>
-      <c r="Z51" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AA51" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="AB51" t="s" s="2">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="52" ht="12.75" customHeight="1">
+      <c r="Z51" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA51" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="AB51" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="52" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="4"/>
-      <c r="B52" t="s" s="2">
+      <c r="B52" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="G52" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="C52" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="D52" t="s" s="2">
-        <v>26</v>
-      </c>
-      <c r="E52" t="s" s="2">
-        <v>9</v>
-      </c>
-      <c r="F52" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="G52" t="s" s="2">
-        <v>29</v>
       </c>
       <c r="H52" s="3">
         <v>42961</v>
@@ -5734,107 +5827,107 @@
       <c r="AA52" s="4"/>
       <c r="AB52" s="4"/>
     </row>
-    <row r="53" ht="12.75" customHeight="1">
-      <c r="A53" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="B53" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="C53" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="D53" t="s" s="2">
-        <v>284</v>
+    <row r="53" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>275</v>
       </c>
       <c r="E53" s="3">
         <v>42962</v>
       </c>
-      <c r="F53" t="s" s="2">
-        <v>33</v>
+      <c r="F53" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="G53" s="3">
         <v>42966</v>
       </c>
-      <c r="H53" t="s" s="2">
-        <v>34</v>
+      <c r="H53" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="I53" s="5">
         <v>4</v>
       </c>
-      <c r="J53" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="K53" t="s" s="2">
-        <v>10</v>
-      </c>
-      <c r="L53" t="s" s="2">
-        <v>285</v>
+      <c r="J53" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K53" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L53" s="2" t="s">
+        <v>276</v>
       </c>
       <c r="M53" s="4"/>
-      <c r="N53" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="O53" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="P53" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Q53" t="s" s="2">
-        <v>39</v>
+      <c r="N53" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="O53" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="P53" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q53" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="R53" s="4"/>
-      <c r="S53" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="T53" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="U53" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V53" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="W53" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="X53" t="s" s="2">
-        <v>19</v>
+      <c r="S53" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="T53" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="U53" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="V53" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="W53" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="X53" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="Y53" s="3">
         <v>42961</v>
       </c>
-      <c r="Z53" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AA53" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="AB53" t="s" s="2">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="54" ht="12.75" customHeight="1">
+      <c r="Z53" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA53" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="AB53" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="54" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="4"/>
-      <c r="B54" t="s" s="2">
+      <c r="B54" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="G54" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="C54" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="D54" t="s" s="2">
-        <v>26</v>
-      </c>
-      <c r="E54" t="s" s="2">
-        <v>9</v>
-      </c>
-      <c r="F54" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="G54" t="s" s="2">
-        <v>29</v>
       </c>
       <c r="H54" s="3">
         <v>42961</v>
@@ -5862,107 +5955,107 @@
       <c r="AA54" s="4"/>
       <c r="AB54" s="4"/>
     </row>
-    <row r="55" ht="12.75" customHeight="1">
-      <c r="A55" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="B55" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="C55" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="D55" t="s" s="2">
-        <v>292</v>
+    <row r="55" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>283</v>
       </c>
       <c r="E55" s="3">
         <v>42962</v>
       </c>
-      <c r="F55" t="s" s="2">
-        <v>33</v>
+      <c r="F55" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="G55" s="3">
         <v>42965</v>
       </c>
-      <c r="H55" t="s" s="2">
-        <v>34</v>
+      <c r="H55" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="I55" s="5">
         <v>3</v>
       </c>
-      <c r="J55" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="K55" t="s" s="2">
-        <v>10</v>
-      </c>
-      <c r="L55" t="s" s="2">
-        <v>294</v>
+      <c r="J55" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="K55" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L55" s="2" t="s">
+        <v>285</v>
       </c>
       <c r="M55" s="4"/>
-      <c r="N55" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="O55" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="P55" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="Q55" t="s" s="2">
-        <v>39</v>
+      <c r="N55" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="O55" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="P55" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q55" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="R55" s="4"/>
-      <c r="S55" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="T55" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="U55" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="V55" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="W55" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X55" t="s" s="2">
-        <v>19</v>
+      <c r="S55" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="T55" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="U55" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="V55" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="W55" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="X55" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="Y55" s="3">
         <v>42962</v>
       </c>
-      <c r="Z55" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AA55" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="AB55" t="s" s="2">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="56" ht="12.75" customHeight="1">
+      <c r="Z55" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA55" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="AB55" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="56" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="4"/>
-      <c r="B56" t="s" s="2">
+      <c r="B56" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="G56" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="C56" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="D56" t="s" s="2">
-        <v>26</v>
-      </c>
-      <c r="E56" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="F56" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="G56" t="s" s="2">
-        <v>29</v>
       </c>
       <c r="H56" s="3">
         <v>42960</v>
@@ -5990,107 +6083,107 @@
       <c r="AA56" s="4"/>
       <c r="AB56" s="4"/>
     </row>
-    <row r="57" ht="12.75" customHeight="1">
-      <c r="A57" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="B57" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="C57" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="D57" t="s" s="2">
-        <v>302</v>
+    <row r="57" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>293</v>
       </c>
       <c r="E57" s="3">
         <v>42962</v>
       </c>
-      <c r="F57" t="s" s="2">
-        <v>33</v>
+      <c r="F57" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="G57" s="3">
         <v>42963</v>
       </c>
-      <c r="H57" t="s" s="2">
-        <v>34</v>
+      <c r="H57" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="I57" s="5">
         <v>1</v>
       </c>
-      <c r="J57" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="K57" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="L57" t="s" s="2">
-        <v>71</v>
+      <c r="J57" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="K57" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="L57" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="M57" s="4"/>
-      <c r="N57" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="O57" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="P57" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="Q57" t="s" s="2">
-        <v>39</v>
+      <c r="N57" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="O57" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="P57" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q57" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="R57" s="4"/>
-      <c r="S57" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="T57" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="U57" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="V57" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="W57" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X57" t="s" s="2">
-        <v>19</v>
+      <c r="S57" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="T57" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="U57" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="V57" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="W57" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="X57" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="Y57" s="3">
         <v>42962</v>
       </c>
-      <c r="Z57" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AA57" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="AB57" t="s" s="2">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="58" ht="12.75" customHeight="1">
+      <c r="Z57" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA57" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="AB57" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="58" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="4"/>
-      <c r="B58" t="s" s="2">
+      <c r="B58" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G58" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="C58" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="D58" t="s" s="2">
-        <v>26</v>
-      </c>
-      <c r="E58" t="s" s="2">
-        <v>9</v>
-      </c>
-      <c r="F58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G58" t="s" s="2">
-        <v>29</v>
       </c>
       <c r="H58" s="3">
         <v>42960</v>
@@ -6118,107 +6211,107 @@
       <c r="AA58" s="4"/>
       <c r="AB58" s="4"/>
     </row>
-    <row r="59" ht="12.75" customHeight="1">
-      <c r="A59" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="B59" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="C59" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="D59" t="s" s="2">
-        <v>307</v>
+    <row r="59" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>298</v>
       </c>
       <c r="E59" s="3">
         <v>42962</v>
       </c>
-      <c r="F59" t="s" s="2">
-        <v>33</v>
+      <c r="F59" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="G59" s="3">
         <v>42964</v>
       </c>
-      <c r="H59" t="s" s="2">
-        <v>93</v>
+      <c r="H59" s="2" t="s">
+        <v>84</v>
       </c>
       <c r="I59" s="5">
         <v>3</v>
       </c>
-      <c r="J59" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="K59" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="L59" t="s" s="2">
-        <v>83</v>
+      <c r="J59" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="K59" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="L59" s="2" t="s">
+        <v>74</v>
       </c>
       <c r="M59" s="4"/>
-      <c r="N59" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="O59" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="P59" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="Q59" t="s" s="2">
-        <v>39</v>
+      <c r="N59" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="O59" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="P59" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q59" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="R59" s="4"/>
-      <c r="S59" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="T59" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="U59" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="V59" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="W59" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X59" t="s" s="2">
-        <v>19</v>
+      <c r="S59" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="T59" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="U59" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="V59" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="W59" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="X59" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="Y59" s="3">
         <v>42962</v>
       </c>
-      <c r="Z59" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AA59" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="AB59" t="s" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="60" ht="12.75" customHeight="1">
+      <c r="Z59" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA59" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="AB59" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="4"/>
-      <c r="B60" t="s" s="2">
+      <c r="B60" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G60" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="C60" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="D60" t="s" s="2">
-        <v>26</v>
-      </c>
-      <c r="E60" t="s" s="2">
-        <v>27</v>
-      </c>
-      <c r="F60" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="G60" t="s" s="2">
-        <v>29</v>
       </c>
       <c r="H60" s="3">
         <v>42960</v>
@@ -6246,107 +6339,107 @@
       <c r="AA60" s="4"/>
       <c r="AB60" s="4"/>
     </row>
-    <row r="61" ht="12.75" customHeight="1">
-      <c r="A61" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="B61" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="C61" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="D61" t="s" s="2">
-        <v>312</v>
+    <row r="61" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>303</v>
       </c>
       <c r="E61" s="3">
         <v>42962</v>
       </c>
-      <c r="F61" t="s" s="2">
-        <v>33</v>
+      <c r="F61" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="G61" s="3">
         <v>42975</v>
       </c>
-      <c r="H61" t="s" s="2">
-        <v>313</v>
+      <c r="H61" s="2" t="s">
+        <v>304</v>
       </c>
       <c r="I61" s="5">
         <v>13</v>
       </c>
-      <c r="J61" t="s" s="2">
-        <v>27</v>
-      </c>
-      <c r="K61" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="L61" t="s" s="2">
-        <v>230</v>
+      <c r="J61" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K61" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="L61" s="2" t="s">
+        <v>221</v>
       </c>
       <c r="M61" s="4"/>
-      <c r="N61" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="O61" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="P61" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="Q61" t="s" s="2">
-        <v>39</v>
+      <c r="N61" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="O61" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="P61" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q61" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="R61" s="4"/>
-      <c r="S61" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="T61" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="U61" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="V61" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="W61" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X61" t="s" s="2">
-        <v>19</v>
+      <c r="S61" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="T61" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="U61" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="V61" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="W61" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="X61" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="Y61" s="3">
         <v>42962</v>
       </c>
-      <c r="Z61" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AA61" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="AB61" t="s" s="2">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="62" ht="12.75" customHeight="1">
+      <c r="Z61" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA61" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="AB61" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="62" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="4"/>
-      <c r="B62" t="s" s="2">
+      <c r="B62" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="G62" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="C62" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="D62" t="s" s="2">
-        <v>26</v>
-      </c>
-      <c r="E62" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="F62" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="G62" t="s" s="2">
-        <v>29</v>
       </c>
       <c r="H62" s="3">
         <v>42961</v>
@@ -6374,107 +6467,107 @@
       <c r="AA62" s="4"/>
       <c r="AB62" s="4"/>
     </row>
-    <row r="63" ht="12.75" customHeight="1">
-      <c r="A63" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="B63" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="C63" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="D63" t="s" s="2">
-        <v>81</v>
+    <row r="63" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>72</v>
       </c>
       <c r="E63" s="3">
         <v>42962</v>
       </c>
-      <c r="F63" t="s" s="2">
-        <v>54</v>
+      <c r="F63" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="G63" s="3">
         <v>42966</v>
       </c>
-      <c r="H63" t="s" s="2">
-        <v>318</v>
+      <c r="H63" s="2" t="s">
+        <v>309</v>
       </c>
       <c r="I63" s="5">
         <v>4</v>
       </c>
-      <c r="J63" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="K63" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="L63" t="s" s="2">
-        <v>319</v>
+      <c r="J63" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="K63" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="L63" s="2" t="s">
+        <v>310</v>
       </c>
       <c r="M63" s="4"/>
-      <c r="N63" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="O63" t="s" s="2">
+      <c r="N63" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="O63" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P63" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q63" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R63" s="4"/>
+      <c r="S63" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="T63" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="U63" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="V63" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="P63" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="Q63" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="R63" s="4"/>
-      <c r="S63" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="T63" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="U63" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="V63" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="W63" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X63" t="s" s="2">
-        <v>19</v>
+      <c r="W63" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="X63" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="Y63" s="3">
         <v>42958</v>
       </c>
-      <c r="Z63" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AA63" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="AB63" t="s" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="64" ht="12.75" customHeight="1">
+      <c r="Z63" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA63" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="AB63" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="4"/>
-      <c r="B64" t="s" s="2">
+      <c r="B64" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="G64" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="C64" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="D64" t="s" s="2">
-        <v>26</v>
-      </c>
-      <c r="E64" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="F64" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="G64" t="s" s="2">
-        <v>29</v>
       </c>
       <c r="H64" s="3">
         <v>42961</v>
@@ -6502,109 +6595,109 @@
       <c r="AA64" s="4"/>
       <c r="AB64" s="4"/>
     </row>
-    <row r="65" ht="12.75" customHeight="1">
-      <c r="A65" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="B65" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="C65" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="D65" t="s" s="2">
-        <v>325</v>
+    <row r="65" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>316</v>
       </c>
       <c r="E65" s="3">
         <v>42962</v>
       </c>
-      <c r="F65" t="s" s="2">
-        <v>54</v>
+      <c r="F65" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="G65" s="3">
         <v>42967</v>
       </c>
-      <c r="H65" t="s" s="2">
-        <v>326</v>
+      <c r="H65" s="2" t="s">
+        <v>317</v>
       </c>
       <c r="I65" s="5">
         <v>5</v>
       </c>
-      <c r="J65" t="s" s="2">
-        <v>9</v>
-      </c>
-      <c r="K65" t="s" s="2">
+      <c r="J65" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K65" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L65" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="M65" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="N65" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="O65" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L65" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="O65" t="s" s="2">
+      <c r="P65" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q65" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="R65" s="4"/>
+      <c r="S65" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="T65" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="U65" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="V65" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="P65" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="Q65" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="R65" s="4"/>
-      <c r="S65" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="T65" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="U65" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="V65" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="W65" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X65" t="s" s="2">
-        <v>19</v>
+      <c r="W65" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="X65" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="Y65" s="3">
         <v>42961</v>
       </c>
-      <c r="Z65" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AA65" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="AB65" t="s" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="66" ht="12.75" customHeight="1">
+      <c r="Z65" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA65" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="AB65" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="66" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="4"/>
-      <c r="B66" t="s" s="2">
+      <c r="B66" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="G66" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="C66" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="D66" t="s" s="2">
-        <v>26</v>
-      </c>
-      <c r="E66" t="s" s="2">
-        <v>9</v>
-      </c>
-      <c r="F66" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="G66" t="s" s="2">
-        <v>29</v>
       </c>
       <c r="H66" s="3">
         <v>42962</v>
@@ -6632,109 +6725,109 @@
       <c r="AA66" s="4"/>
       <c r="AB66" s="4"/>
     </row>
-    <row r="67" ht="12.75" customHeight="1">
-      <c r="A67" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="B67" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="C67" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="D67" t="s" s="2">
-        <v>334</v>
+    <row r="67" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>325</v>
       </c>
       <c r="E67" s="3">
         <v>42962</v>
       </c>
-      <c r="F67" t="s" s="2">
-        <v>54</v>
+      <c r="F67" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="G67" s="3">
         <v>42964</v>
       </c>
-      <c r="H67" t="s" s="2">
-        <v>93</v>
+      <c r="H67" s="2" t="s">
+        <v>84</v>
       </c>
       <c r="I67" s="5">
         <v>3</v>
       </c>
-      <c r="J67" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="K67" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="L67" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="M67" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="N67" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="O67" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="P67" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="Q67" t="s" s="2">
-        <v>39</v>
+      <c r="J67" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="K67" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="L67" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="M67" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="N67" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="O67" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="P67" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q67" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="R67" s="4"/>
-      <c r="S67" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="T67" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="U67" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="V67" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="W67" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="X67" t="s" s="2">
-        <v>19</v>
+      <c r="S67" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="T67" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="U67" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="V67" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="W67" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="X67" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="Y67" s="3">
         <v>42961</v>
       </c>
-      <c r="Z67" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AA67" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="AB67" t="s" s="2">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="68" ht="12.75" customHeight="1">
+      <c r="Z67" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA67" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="AB67" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="68" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="4"/>
-      <c r="B68" t="s" s="2">
+      <c r="B68" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="G68" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="C68" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="D68" t="s" s="2">
-        <v>26</v>
-      </c>
-      <c r="E68" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="F68" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="G68" t="s" s="2">
-        <v>29</v>
       </c>
       <c r="H68" s="3">
         <v>42962</v>
@@ -6762,109 +6855,109 @@
       <c r="AA68" s="4"/>
       <c r="AB68" s="4"/>
     </row>
-    <row r="69" ht="12.75" customHeight="1">
-      <c r="A69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="B69" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="C69" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="D69" t="s" s="2">
-        <v>342</v>
+    <row r="69" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>333</v>
       </c>
       <c r="E69" s="3">
         <v>42962</v>
       </c>
-      <c r="F69" t="s" s="2">
-        <v>343</v>
+      <c r="F69" s="2" t="s">
+        <v>334</v>
       </c>
       <c r="G69" s="3">
         <v>42964</v>
       </c>
-      <c r="H69" t="s" s="2">
-        <v>93</v>
+      <c r="H69" s="2" t="s">
+        <v>84</v>
       </c>
       <c r="I69" s="5">
         <v>3</v>
       </c>
-      <c r="J69" t="s" s="2">
-        <v>27</v>
-      </c>
-      <c r="K69" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="L69" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="N69" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="O69" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="P69" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="Q69" t="s" s="2">
-        <v>39</v>
+      <c r="J69" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K69" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="L69" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="M69" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="N69" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="O69" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="P69" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="Q69" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="R69" s="4"/>
-      <c r="S69" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="T69" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="U69" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="V69" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="W69" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="X69" t="s" s="2">
-        <v>19</v>
+      <c r="S69" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="T69" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="U69" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="V69" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="W69" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="X69" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="Y69" s="3">
         <v>42962</v>
       </c>
-      <c r="Z69" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AA69" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="AB69" t="s" s="2">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="70" ht="12.75" customHeight="1">
+      <c r="Z69" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA69" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="AB69" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="70" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="4"/>
-      <c r="B70" t="s" s="2">
+      <c r="B70" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="G70" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="C70" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="D70" t="s" s="2">
-        <v>26</v>
-      </c>
-      <c r="E70" t="s" s="2">
-        <v>9</v>
-      </c>
-      <c r="F70" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="G70" t="s" s="2">
-        <v>29</v>
       </c>
       <c r="H70" s="3">
         <v>42959</v>
@@ -6892,109 +6985,109 @@
       <c r="AA70" s="4"/>
       <c r="AB70" s="4"/>
     </row>
-    <row r="71" ht="12.75" customHeight="1">
-      <c r="A71" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="B71" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="C71" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="D71" t="s" s="2">
-        <v>352</v>
+    <row r="71" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>343</v>
       </c>
       <c r="E71" s="3">
         <v>42962</v>
       </c>
-      <c r="F71" t="s" s="2">
-        <v>159</v>
+      <c r="F71" s="2" t="s">
+        <v>150</v>
       </c>
       <c r="G71" s="3">
         <v>42963</v>
       </c>
-      <c r="H71" t="s" s="2">
-        <v>197</v>
+      <c r="H71" s="2" t="s">
+        <v>188</v>
       </c>
       <c r="I71" s="5">
         <v>1</v>
       </c>
-      <c r="J71" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="K71" t="s" s="2">
+      <c r="J71" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K71" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L71" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="M71" s="4"/>
+      <c r="N71" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="O71" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L71" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="M71" s="4"/>
-      <c r="N71" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="O71" t="s" s="2">
+      <c r="P71" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q71" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R71" s="4"/>
+      <c r="S71" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="T71" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="U71" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="V71" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="P71" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="Q71" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="R71" s="4"/>
-      <c r="S71" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="T71" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="U71" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="V71" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="W71" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X71" t="s" s="2">
-        <v>19</v>
+      <c r="W71" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="X71" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="Y71" s="3">
         <v>42961</v>
       </c>
-      <c r="Z71" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AA71" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="AB71" t="s" s="2">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="72" ht="12.75" customHeight="1">
-      <c r="A72" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="B72" t="s" s="2">
+      <c r="Z71" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA71" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="AB71" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="72" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="G72" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="C72" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="D72" t="s" s="2">
-        <v>26</v>
-      </c>
-      <c r="E72" t="s" s="2">
-        <v>9</v>
-      </c>
-      <c r="F72" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="G72" t="s" s="2">
-        <v>29</v>
       </c>
       <c r="H72" s="3">
         <v>42961</v>
@@ -7022,105 +7115,105 @@
       <c r="AA72" s="4"/>
       <c r="AB72" s="4"/>
     </row>
-    <row r="73" ht="12.75" customHeight="1">
-      <c r="A73" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="B73" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="C73" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="D73" t="s" s="2">
-        <v>361</v>
+    <row r="73" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>352</v>
       </c>
       <c r="E73" s="3">
         <v>42962</v>
       </c>
-      <c r="F73" t="s" s="2">
-        <v>187</v>
+      <c r="F73" s="2" t="s">
+        <v>178</v>
       </c>
       <c r="G73" s="3">
         <v>42968</v>
       </c>
-      <c r="H73" t="s" s="2">
-        <v>93</v>
+      <c r="H73" s="2" t="s">
+        <v>84</v>
       </c>
       <c r="I73" s="5">
         <v>7</v>
       </c>
-      <c r="J73" t="s" s="2">
-        <v>293</v>
+      <c r="J73" s="2" t="s">
+        <v>284</v>
       </c>
       <c r="K73" s="4"/>
-      <c r="L73" t="s" s="2">
-        <v>362</v>
+      <c r="L73" s="2" t="s">
+        <v>353</v>
       </c>
       <c r="M73" s="4"/>
-      <c r="N73" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="O73" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="P73" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="Q73" t="s" s="2">
-        <v>39</v>
+      <c r="N73" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="O73" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="P73" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q73" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="R73" s="4"/>
-      <c r="S73" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="T73" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="U73" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="V73" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="W73" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X73" t="s" s="2">
-        <v>19</v>
+      <c r="S73" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="T73" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="U73" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="V73" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="W73" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="X73" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="Y73" s="3">
         <v>42962</v>
       </c>
-      <c r="Z73" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AA73" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="AB73" t="s" s="2">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="74" ht="12.75" customHeight="1">
+      <c r="Z73" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA73" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="AB73" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="74" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="4"/>
-      <c r="B74" t="s" s="2">
+      <c r="B74" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="G74" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="C74" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="D74" t="s" s="2">
-        <v>26</v>
-      </c>
-      <c r="E74" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="F74" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="G74" t="s" s="2">
-        <v>29</v>
       </c>
       <c r="H74" s="3">
         <v>42959</v>
@@ -7148,107 +7241,107 @@
       <c r="AA74" s="4"/>
       <c r="AB74" s="4"/>
     </row>
-    <row r="75" ht="12.75" customHeight="1">
-      <c r="A75" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="B75" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="C75" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="D75" t="s" s="2">
-        <v>369</v>
+    <row r="75" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>360</v>
       </c>
       <c r="E75" s="3">
         <v>42962</v>
       </c>
-      <c r="F75" t="s" s="2">
-        <v>315</v>
+      <c r="F75" s="2" t="s">
+        <v>306</v>
       </c>
       <c r="G75" s="3">
         <v>42973</v>
       </c>
-      <c r="H75" t="s" s="2">
-        <v>251</v>
+      <c r="H75" s="2" t="s">
+        <v>242</v>
       </c>
       <c r="I75" s="5">
         <v>12</v>
       </c>
-      <c r="J75" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="K75" t="s" s="2">
-        <v>10</v>
-      </c>
-      <c r="L75" t="s" s="2">
-        <v>371</v>
+      <c r="J75" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="K75" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L75" s="2" t="s">
+        <v>362</v>
       </c>
       <c r="M75" s="4"/>
-      <c r="N75" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="O75" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="P75" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="Q75" t="s" s="2">
-        <v>372</v>
+      <c r="N75" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="O75" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="P75" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q75" s="2" t="s">
+        <v>363</v>
       </c>
       <c r="R75" s="4"/>
-      <c r="S75" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="T75" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="U75" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="V75" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="W75" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X75" t="s" s="2">
-        <v>19</v>
+      <c r="S75" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="T75" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="U75" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="V75" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="W75" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="X75" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="Y75" s="3">
         <v>42952</v>
       </c>
-      <c r="Z75" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AA75" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="AB75" t="s" s="2">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="76" ht="12.75" customHeight="1">
+      <c r="Z75" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA75" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="AB75" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="76" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="4"/>
-      <c r="B76" t="s" s="2">
+      <c r="B76" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="G76" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="C76" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="D76" t="s" s="2">
-        <v>26</v>
-      </c>
-      <c r="E76" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="F76" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="G76" t="s" s="2">
-        <v>29</v>
       </c>
       <c r="H76" s="3">
         <v>42962</v>
@@ -7276,111 +7369,111 @@
       <c r="AA76" s="4"/>
       <c r="AB76" s="4"/>
     </row>
-    <row r="77" ht="12.75" customHeight="1">
-      <c r="A77" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="B77" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="C77" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="D77" t="s" s="2">
-        <v>378</v>
+    <row r="77" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>369</v>
       </c>
       <c r="E77" s="3">
         <v>42962</v>
       </c>
-      <c r="F77" t="s" s="2">
-        <v>197</v>
+      <c r="F77" s="2" t="s">
+        <v>188</v>
       </c>
       <c r="G77" s="3">
         <v>42979</v>
       </c>
-      <c r="H77" t="s" s="2">
-        <v>313</v>
+      <c r="H77" s="2" t="s">
+        <v>304</v>
       </c>
       <c r="I77" s="5">
         <v>17</v>
       </c>
-      <c r="J77" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="K77" t="s" s="2">
+      <c r="J77" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="K77" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L77" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="M77" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="N77" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="O77" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L77" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="M77" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="N77" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="O77" t="s" s="2">
+      <c r="P77" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q77" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="R77" s="4"/>
+      <c r="S77" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="T77" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="U77" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="V77" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="P77" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="Q77" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="R77" s="4"/>
-      <c r="S77" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="T77" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="U77" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="V77" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="W77" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X77" t="s" s="2">
-        <v>19</v>
+      <c r="W77" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="X77" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="Y77" s="3">
         <v>42947</v>
       </c>
-      <c r="Z77" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AA77" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="AB77" t="s" s="2">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="78" ht="12.75" customHeight="1">
-      <c r="A78" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="B78" t="s" s="2">
+      <c r="Z77" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA77" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="AB77" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="78" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="G78" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="C78" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="D78" t="s" s="2">
-        <v>26</v>
-      </c>
-      <c r="E78" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="F78" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="G78" t="s" s="2">
-        <v>29</v>
       </c>
       <c r="H78" s="3">
         <v>42962</v>
@@ -7408,105 +7501,105 @@
       <c r="AA78" s="4"/>
       <c r="AB78" s="4"/>
     </row>
-    <row r="79" ht="12.75" customHeight="1">
-      <c r="A79" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="B79" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="C79" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="D79" t="s" s="2">
-        <v>390</v>
+    <row r="79" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>381</v>
       </c>
       <c r="E79" s="3">
         <v>42962</v>
       </c>
-      <c r="F79" t="s" s="2">
-        <v>197</v>
+      <c r="F79" s="2" t="s">
+        <v>188</v>
       </c>
       <c r="G79" s="3">
         <v>42969</v>
       </c>
-      <c r="H79" t="s" s="2">
-        <v>34</v>
+      <c r="H79" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="I79" s="5">
         <v>7</v>
       </c>
-      <c r="J79" t="s" s="2">
-        <v>50</v>
+      <c r="J79" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="K79" s="4"/>
-      <c r="L79" t="s" s="2">
-        <v>391</v>
+      <c r="L79" s="2" t="s">
+        <v>382</v>
       </c>
       <c r="M79" s="4"/>
-      <c r="N79" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="O79" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="P79" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Q79" t="s" s="2">
-        <v>39</v>
+      <c r="N79" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="O79" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="P79" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q79" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="R79" s="4"/>
-      <c r="S79" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="T79" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="U79" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V79" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="W79" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="X79" t="s" s="2">
-        <v>19</v>
+      <c r="S79" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="T79" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="U79" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="V79" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="W79" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="X79" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="Y79" s="3">
         <v>42962</v>
       </c>
-      <c r="Z79" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AA79" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="AB79" t="s" s="2">
+      <c r="Z79" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA79" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="AB79" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="80" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="4"/>
+      <c r="B80" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E80" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="80" ht="12.75" customHeight="1">
-      <c r="A80" s="4"/>
-      <c r="B80" t="s" s="2">
+      <c r="F80" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="G80" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="C80" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="D80" t="s" s="2">
-        <v>26</v>
-      </c>
-      <c r="E80" t="s" s="2">
-        <v>27</v>
-      </c>
-      <c r="F80" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="G80" t="s" s="2">
-        <v>29</v>
       </c>
       <c r="H80" s="3">
         <v>42961</v>
@@ -7534,111 +7627,111 @@
       <c r="AA80" s="4"/>
       <c r="AB80" s="4"/>
     </row>
-    <row r="81" ht="12.75" customHeight="1">
-      <c r="A81" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="B81" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="C81" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="D81" t="s" s="2">
-        <v>397</v>
+    <row r="81" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>388</v>
       </c>
       <c r="E81" s="3">
         <v>42962</v>
       </c>
-      <c r="F81" t="s" s="2">
-        <v>398</v>
+      <c r="F81" s="2" t="s">
+        <v>389</v>
       </c>
       <c r="G81" s="3">
         <v>42966</v>
       </c>
-      <c r="H81" t="s" s="2">
-        <v>69</v>
+      <c r="H81" s="2" t="s">
+        <v>60</v>
       </c>
       <c r="I81" s="5">
         <v>5</v>
       </c>
-      <c r="J81" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="K81" t="s" s="2">
+      <c r="J81" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="K81" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L81" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="M81" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="N81" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="O81" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L81" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="M81" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="N81" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="O81" t="s" s="2">
+      <c r="P81" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q81" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="R81" s="4"/>
+      <c r="S81" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="T81" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="U81" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="V81" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="P81" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="Q81" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="R81" s="4"/>
-      <c r="S81" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="T81" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="U81" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="V81" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="W81" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X81" t="s" s="2">
-        <v>19</v>
+      <c r="W81" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="X81" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="Y81" s="3">
         <v>42962</v>
       </c>
-      <c r="Z81" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AA81" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="AB81" t="s" s="2">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="82" ht="12.75" customHeight="1">
-      <c r="A82" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="B82" t="s" s="2">
+      <c r="Z81" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA81" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="AB81" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="82" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="G82" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="C82" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="D82" t="s" s="2">
-        <v>26</v>
-      </c>
-      <c r="E82" t="s" s="2">
-        <v>9</v>
-      </c>
-      <c r="F82" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="G82" t="s" s="2">
-        <v>29</v>
       </c>
       <c r="H82" s="3">
         <v>42961</v>
@@ -7666,109 +7759,109 @@
       <c r="AA82" s="4"/>
       <c r="AB82" s="4"/>
     </row>
-    <row r="83" ht="12.75" customHeight="1">
-      <c r="A83" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="B83" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="C83" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="D83" t="s" s="2">
-        <v>408</v>
+    <row r="83" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>399</v>
       </c>
       <c r="E83" s="3">
         <v>42962</v>
       </c>
-      <c r="F83" t="s" s="2">
-        <v>251</v>
+      <c r="F83" s="2" t="s">
+        <v>242</v>
       </c>
       <c r="G83" s="3">
         <v>42978</v>
       </c>
-      <c r="H83" t="s" s="2">
-        <v>409</v>
+      <c r="H83" s="2" t="s">
+        <v>400</v>
       </c>
       <c r="I83" s="5">
         <v>16</v>
       </c>
-      <c r="J83" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="K83" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="L83" t="s" s="2">
-        <v>410</v>
+      <c r="J83" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K83" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="L83" s="2" t="s">
+        <v>401</v>
       </c>
       <c r="M83" s="4"/>
-      <c r="N83" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="O83" t="s" s="2">
+      <c r="N83" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="O83" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P83" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q83" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="R83" s="4"/>
+      <c r="S83" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="T83" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="U83" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="V83" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="P83" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="Q83" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="R83" s="4"/>
-      <c r="S83" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="T83" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="U83" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="V83" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="W83" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X83" t="s" s="2">
-        <v>19</v>
+      <c r="W83" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="X83" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="Y83" s="3">
         <v>42962</v>
       </c>
-      <c r="Z83" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AA83" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="AB83" t="s" s="2">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="84" ht="12.75" customHeight="1">
-      <c r="A84" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="B84" t="s" s="2">
+      <c r="Z83" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA83" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="AB83" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="84" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="G84" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="C84" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="D84" t="s" s="2">
-        <v>26</v>
-      </c>
-      <c r="E84" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="F84" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="G84" t="s" s="2">
-        <v>29</v>
       </c>
       <c r="H84" s="3">
         <v>42962</v>
@@ -7796,9 +7889,9 @@
       <c r="AA84" s="4"/>
       <c r="AB84" s="4"/>
     </row>
-    <row r="85" ht="12.75" customHeight="1">
-      <c r="A85" t="s" s="2">
-        <v>416</v>
+    <row r="85" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="2" t="s">
+        <v>407</v>
       </c>
       <c r="B85" s="5">
         <v>41</v>
@@ -7830,9 +7923,9 @@
       <c r="AA85" s="4"/>
       <c r="AB85" s="4"/>
     </row>
-    <row r="86" ht="12.75" customHeight="1">
-      <c r="A86" t="s" s="2">
-        <v>417</v>
+    <row r="86" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="2" t="s">
+        <v>408</v>
       </c>
       <c r="B86" s="4"/>
       <c r="C86" s="4"/>
@@ -7863,8 +7956,11 @@
       <c r="AB86" s="4"/>
     </row>
   </sheetData>
-  <pageMargins left="0" right="0" top="0" bottom="0" header="0.511806" footer="0.511806"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="landscape" pageOrder="downThenOver"/>
+  <hyperlinks>
+    <hyperlink ref="A4" r:id="rId1" xr:uid="{70FA6AF5-E249-440E-A622-C8167A22AAE3}"/>
+  </hyperlinks>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0.51180599999999998" footer="0.51180599999999998"/>
+  <pageSetup orientation="landscape"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/Wassauto/Excels/4resentrega_Only_Data .xlsx
+++ b/Wassauto/Excels/4resentrega_Only_Data .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eci\project\AutosPlaza\Wassauto\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BE462DE-4F54-4239-AD48-CF8A5DB4A1FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{779E6B3F-B94B-4AD5-B26C-977DE999B7D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4410" yWindow="2355" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1255,9 +1255,6 @@
     <t>CABANILLAS FERNANDO</t>
   </si>
   <si>
-    <t>Telf.: 606935841</t>
-  </si>
-  <si>
     <t>AUTOSPLAZA SAUL</t>
   </si>
   <si>
@@ -1267,13 +1264,16 @@
     <t>ROMARES DANIA</t>
   </si>
   <si>
-    <t>Telf.: +34664249786</t>
-  </si>
-  <si>
     <t>17:16</t>
   </si>
   <si>
     <t>6773 KLM</t>
+  </si>
+  <si>
+    <t>Telf.: +34664249785</t>
+  </si>
+  <si>
+    <t>Telf.: 606935845</t>
   </si>
 </sst>
 </file>
@@ -2530,8 +2530,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB86"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="S7" sqref="S7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="7.85546875" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2617,7 +2617,7 @@
         <v>4</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>5</v>
@@ -2632,7 +2632,7 @@
         <v>45204</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="I3" s="5">
         <v>3</v>
@@ -2648,7 +2648,7 @@
       </c>
       <c r="M3" s="4"/>
       <c r="N3" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="O3" s="2" t="s">
         <v>10</v>
@@ -2661,7 +2661,7 @@
       </c>
       <c r="R3" s="4"/>
       <c r="S3" s="2" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="T3" s="2" t="s">
         <v>12</v>
@@ -2693,7 +2693,7 @@
     </row>
     <row r="4" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>19</v>
@@ -2900,7 +2900,7 @@
       </c>
       <c r="K7" s="4"/>
       <c r="L7" s="2" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="M7" s="4"/>
       <c r="N7" s="2" t="s">
@@ -2917,7 +2917,7 @@
       </c>
       <c r="R7" s="4"/>
       <c r="S7" s="2" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="T7" s="2" t="s">
         <v>12</v>

--- a/Wassauto/Excels/4resentrega_Only_Data .xlsx
+++ b/Wassauto/Excels/4resentrega_Only_Data .xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eci\project\AutosPlaza\Wassauto\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E981E53-1C64-4CD3-B409-7E8B58F85D00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7120778-A85A-4590-9E7D-3410586D6AA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4410" yWindow="2355" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="45">
   <si>
     <t>LISTADO DE ENTREGAS</t>
   </si>
@@ -40,9 +40,6 @@
     <t>TURQUESA</t>
   </si>
   <si>
-    <t>13:15</t>
-  </si>
-  <si>
     <t>HOTELPTO</t>
   </si>
   <si>
@@ -73,9 +70,6 @@
     <t>H. RES. :</t>
   </si>
   <si>
-    <t>09:41</t>
-  </si>
-  <si>
     <t>BLANCO</t>
   </si>
   <si>
@@ -151,19 +145,16 @@
     <t>Page -1 of 1</t>
   </si>
   <si>
-    <t>AUTOSPLAZA SAUL</t>
-  </si>
-  <si>
     <t>saul@autosplaza.es</t>
   </si>
   <si>
-    <t>ROMARES DANIA</t>
-  </si>
-  <si>
-    <t>17:16</t>
-  </si>
-  <si>
-    <t>Telf.: +346642497855</t>
+    <t>Telf.: +34606935841</t>
+  </si>
+  <si>
+    <t>FERNANDO</t>
+  </si>
+  <si>
+    <t>CABANILLAS FERNANDO</t>
   </si>
 </sst>
 </file>
@@ -1420,8 +1411,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB86"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B88" sqref="B88"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="AA12" sqref="AA12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="7.85546875" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1513,101 +1504,101 @@
         <v>5</v>
       </c>
       <c r="E3" s="3">
-        <v>45204</v>
+        <v>45225</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="G3" s="3">
-        <v>45204</v>
+        <v>45227</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="I3" s="5">
         <v>3</v>
       </c>
       <c r="J3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="L3" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>9</v>
       </c>
       <c r="M3" s="4"/>
       <c r="N3" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q3" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>11</v>
       </c>
       <c r="R3" s="4"/>
       <c r="S3" s="2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="T3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="V3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="U3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="V3" s="2" t="s">
+      <c r="W3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="W3" s="2" t="s">
+      <c r="X3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="X3" s="2" t="s">
+      <c r="Y3" s="3">
+        <v>42956</v>
+      </c>
+      <c r="Z3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Y3" s="3">
-        <v>42948</v>
-      </c>
-      <c r="Z3" s="2" t="s">
+      <c r="AA3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB3" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="AA3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="AB3" s="2" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>24</v>
       </c>
       <c r="H4" s="3">
         <v>45193</v>
       </c>
       <c r="I4" s="6">
-        <v>36494.458333333336</v>
+        <v>36494.666666666664</v>
       </c>
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
@@ -1634,102 +1625,102 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>27</v>
       </c>
       <c r="E5" s="3">
         <v>45225</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G5" s="3">
         <v>45227</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I5" s="5">
         <v>3</v>
       </c>
       <c r="J5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L5" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>32</v>
       </c>
       <c r="M5" s="4"/>
       <c r="N5" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="R5" s="4"/>
       <c r="S5" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="T5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="U5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="V5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="U5" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="V5" s="2" t="s">
+      <c r="W5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="W5" s="2" t="s">
+      <c r="X5" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="X5" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="Y5" s="3">
         <v>42956</v>
       </c>
       <c r="Z5" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AA5" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AB5" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4"/>
       <c r="B6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="E6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="G6" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H6" s="3">
         <v>45193</v>
@@ -4099,7 +4090,7 @@
     </row>
     <row r="85" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B85" s="5">
         <v>41</v>
@@ -4133,7 +4124,7 @@
     </row>
     <row r="86" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B86" s="4"/>
       <c r="C86" s="4"/>

--- a/Wassauto/Excels/4resentrega_Only_Data .xlsx
+++ b/Wassauto/Excels/4resentrega_Only_Data .xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eci\project\AutosPlaza\Wassauto\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7120778-A85A-4590-9E7D-3410586D6AA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A701A7F7-E0C3-4393-800B-5F2DBB6323AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4410" yWindow="2355" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="54">
   <si>
     <t>LISTADO DE ENTREGAS</t>
   </si>
@@ -46,9 +46,6 @@
     <t>VW POLO</t>
   </si>
   <si>
-    <t>6507 GXJ</t>
-  </si>
-  <si>
     <t>CO</t>
   </si>
   <si>
@@ -100,9 +97,6 @@
     <t>SAN TELMO 211</t>
   </si>
   <si>
-    <t>09:30</t>
-  </si>
-  <si>
     <t>08:00</t>
   </si>
   <si>
@@ -112,18 +106,12 @@
     <t>CITROEN C3</t>
   </si>
   <si>
-    <t>2735 LSY</t>
-  </si>
-  <si>
     <t>VE</t>
   </si>
   <si>
     <t xml:space="preserve">  </t>
   </si>
   <si>
-    <t xml:space="preserve">Telf.: +34664580996 </t>
-  </si>
-  <si>
     <t>18:42</t>
   </si>
   <si>
@@ -148,13 +136,52 @@
     <t>saul@autosplaza.es</t>
   </si>
   <si>
-    <t>Telf.: +34606935841</t>
-  </si>
-  <si>
     <t>FERNANDO</t>
   </si>
   <si>
     <t>CABANILLAS FERNANDO</t>
+  </si>
+  <si>
+    <t>VE11707059</t>
+  </si>
+  <si>
+    <t>CO17070083</t>
+  </si>
+  <si>
+    <t>CO17070081</t>
+  </si>
+  <si>
+    <t>4523 KTS</t>
+  </si>
+  <si>
+    <t>6112 KWX</t>
+  </si>
+  <si>
+    <t>CARMEN</t>
+  </si>
+  <si>
+    <t>BENJAMIN</t>
+  </si>
+  <si>
+    <t>1100 KNL</t>
+  </si>
+  <si>
+    <t>5062 KPB</t>
+  </si>
+  <si>
+    <t>22:00</t>
+  </si>
+  <si>
+    <t>Telf.: +34664580996</t>
+  </si>
+  <si>
+    <t>Telf.: +346069358410</t>
+  </si>
+  <si>
+    <t>Telf.: +346750958530</t>
+  </si>
+  <si>
+    <t>Telf.: +346561803790</t>
   </si>
 </sst>
 </file>
@@ -1411,8 +1438,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB86"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="S1" workbookViewId="0">
-      <selection activeCell="AA12" sqref="AA12"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="S9" sqref="S9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="7.85546875" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1498,22 +1525,22 @@
         <v>4</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E3" s="3">
-        <v>45225</v>
+        <v>45217</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="G3" s="3">
         <v>45227</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I3" s="5">
         <v>3</v>
@@ -1525,74 +1552,74 @@
         <v>7</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>8</v>
+        <v>47</v>
       </c>
       <c r="M3" s="4"/>
       <c r="N3" s="2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="O3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q3" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>10</v>
       </c>
       <c r="R3" s="4"/>
       <c r="S3" s="2" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="T3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="V3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="U3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="V3" s="2" t="s">
+      <c r="W3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="W3" s="2" t="s">
+      <c r="X3" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="X3" s="2" t="s">
-        <v>14</v>
       </c>
       <c r="Y3" s="3">
         <v>42956</v>
       </c>
       <c r="Z3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB3" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="AA3" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AB3" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>22</v>
       </c>
       <c r="H4" s="3">
         <v>45193</v>
@@ -1625,102 +1652,102 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>25</v>
-      </c>
       <c r="E5" s="3">
-        <v>45225</v>
+        <v>45217</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="G5" s="3">
         <v>45227</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I5" s="5">
         <v>3</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="M5" s="4"/>
       <c r="N5" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="R5" s="4"/>
       <c r="S5" s="2" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="T5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="U5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="V5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="U5" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="V5" s="2" t="s">
+      <c r="W5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="W5" s="2" t="s">
+      <c r="X5" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="X5" s="2" t="s">
-        <v>14</v>
       </c>
       <c r="Y5" s="3">
         <v>42956</v>
       </c>
       <c r="Z5" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AA5" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="AB5" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4"/>
       <c r="B6" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H6" s="3">
         <v>45193</v>
@@ -1749,45 +1776,113 @@
       <c r="AB6" s="4"/>
     </row>
     <row r="7" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="2"/>
+      <c r="A7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="3">
+        <v>45217</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G7" s="3">
+        <v>45218</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I7" s="5">
+        <v>3</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="M7" s="4"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="2"/>
+      <c r="N7" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="R7" s="4"/>
-      <c r="S7" s="2"/>
-      <c r="T7" s="2"/>
-      <c r="U7" s="2"/>
-      <c r="V7" s="2"/>
-      <c r="W7" s="2"/>
-      <c r="X7" s="2"/>
-      <c r="Y7" s="3"/>
-      <c r="Z7" s="2"/>
-      <c r="AA7" s="2"/>
-      <c r="AB7" s="2"/>
+      <c r="S7" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="T7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="U7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="V7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="W7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="X7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y7" s="3">
+        <v>42956</v>
+      </c>
+      <c r="Z7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB7" s="2" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="8" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="6"/>
+      <c r="B8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8" s="3">
+        <v>45193</v>
+      </c>
+      <c r="I8" s="6">
+        <v>36494.666666666664</v>
+      </c>
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
@@ -1809,45 +1904,113 @@
       <c r="AB8" s="4"/>
     </row>
     <row r="9" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="2"/>
+      <c r="A9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="3">
+        <v>45217</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G9" s="3">
+        <v>45218</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I9" s="5">
+        <v>3</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>43</v>
+      </c>
       <c r="M9" s="4"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
-      <c r="P9" s="2"/>
-      <c r="Q9" s="2"/>
+      <c r="N9" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="P9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q9" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="R9" s="4"/>
-      <c r="S9" s="2"/>
-      <c r="T9" s="2"/>
-      <c r="U9" s="2"/>
-      <c r="V9" s="2"/>
-      <c r="W9" s="2"/>
-      <c r="X9" s="2"/>
-      <c r="Y9" s="3"/>
-      <c r="Z9" s="2"/>
-      <c r="AA9" s="2"/>
-      <c r="AB9" s="2"/>
+      <c r="S9" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="T9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="U9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="V9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="W9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="X9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y9" s="3">
+        <v>42956</v>
+      </c>
+      <c r="Z9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB9" s="2" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="10" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="6"/>
+      <c r="B10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H10" s="3">
+        <v>45193</v>
+      </c>
+      <c r="I10" s="6">
+        <v>36494.666666666664</v>
+      </c>
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
@@ -4090,7 +4253,7 @@
     </row>
     <row r="85" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B85" s="5">
         <v>41</v>
@@ -4124,7 +4287,7 @@
     </row>
     <row r="86" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B86" s="4"/>
       <c r="C86" s="4"/>

--- a/Wassauto/Excels/4resentrega_Only_Data .xlsx
+++ b/Wassauto/Excels/4resentrega_Only_Data .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eci\project\AutosPlaza\Wassauto\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A701A7F7-E0C3-4393-800B-5F2DBB6323AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{486B756C-A06C-4DA5-96F6-CDFD17EBBEE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1438,8 +1438,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB86"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="S9" sqref="S9"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="S5" sqref="S5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="7.85546875" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/Wassauto/Excels/4resentrega_Only_Data .xlsx
+++ b/Wassauto/Excels/4resentrega_Only_Data .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eci\project\AutosPlaza\Wassauto\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{486B756C-A06C-4DA5-96F6-CDFD17EBBEE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D56AC1C-5EF7-4278-8D49-A7D0F28B4920}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1439,7 +1439,7 @@
   <dimension ref="A1:AB86"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="S5" sqref="S5"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="7.85546875" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1531,7 +1531,7 @@
         <v>5</v>
       </c>
       <c r="E3" s="3">
-        <v>45217</v>
+        <v>45218</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>49</v>
@@ -1661,7 +1661,7 @@
         <v>24</v>
       </c>
       <c r="E5" s="3">
-        <v>45217</v>
+        <v>45218</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>49</v>
@@ -1789,7 +1789,7 @@
         <v>24</v>
       </c>
       <c r="E7" s="3">
-        <v>45217</v>
+        <v>45218</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>49</v>
@@ -1917,7 +1917,7 @@
         <v>24</v>
       </c>
       <c r="E9" s="3">
-        <v>45217</v>
+        <v>45218</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>49</v>

--- a/Wassauto/Excels/4resentrega_Only_Data .xlsx
+++ b/Wassauto/Excels/4resentrega_Only_Data .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eci\project\AutosPlaza\Wassauto\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D56AC1C-5EF7-4278-8D49-A7D0F28B4920}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3825FEAE-A1BE-4F16-8C04-136F612CA354}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1438,8 +1438,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB86"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="7.85546875" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/Wassauto/Excels/4resentrega_Only_Data .xlsx
+++ b/Wassauto/Excels/4resentrega_Only_Data .xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eci\project\AutosPlaza\Wassauto\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3825FEAE-A1BE-4F16-8C04-136F612CA354}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90799406-F3F2-4089-A889-0DD9387DD36C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3240" yWindow="3765" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1438,8 +1438,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB86"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="7.85546875" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1661,7 +1661,7 @@
         <v>24</v>
       </c>
       <c r="E5" s="3">
-        <v>45218</v>
+        <v>45219</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>49</v>

--- a/Wassauto/Excels/4resentrega_Only_Data .xlsx
+++ b/Wassauto/Excels/4resentrega_Only_Data .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eci\project\AutosPlaza\Wassauto\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90799406-F3F2-4089-A889-0DD9387DD36C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7DC0982-50A8-47D9-9401-600A39EBAFC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3240" yWindow="3765" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -151,12 +151,6 @@
     <t>CO17070081</t>
   </si>
   <si>
-    <t>4523 KTS</t>
-  </si>
-  <si>
-    <t>6112 KWX</t>
-  </si>
-  <si>
     <t>CARMEN</t>
   </si>
   <si>
@@ -166,22 +160,28 @@
     <t>1100 KNL</t>
   </si>
   <si>
-    <t>5062 KPB</t>
-  </si>
-  <si>
-    <t>22:00</t>
-  </si>
-  <si>
     <t>Telf.: +34664580996</t>
   </si>
   <si>
-    <t>Telf.: +346069358410</t>
-  </si>
-  <si>
-    <t>Telf.: +346750958530</t>
-  </si>
-  <si>
-    <t>Telf.: +346561803790</t>
+    <t>18:00</t>
+  </si>
+  <si>
+    <t>Telf.: +34606935841</t>
+  </si>
+  <si>
+    <t>Telf.: +34675095853</t>
+  </si>
+  <si>
+    <t>Telf.: +34656180379</t>
+  </si>
+  <si>
+    <t>2794 KBW</t>
+  </si>
+  <si>
+    <t>1464 KVJ</t>
+  </si>
+  <si>
+    <t>1127 KVF</t>
   </si>
 </sst>
 </file>
@@ -1438,8 +1438,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB86"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="S18" sqref="S18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="7.85546875" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1531,13 +1531,13 @@
         <v>5</v>
       </c>
       <c r="E3" s="3">
-        <v>45218</v>
+        <v>45222</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G3" s="3">
-        <v>45227</v>
+        <v>45224</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>25</v>
@@ -1552,7 +1552,7 @@
         <v>7</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="M3" s="4"/>
       <c r="N3" s="2" t="s">
@@ -1569,7 +1569,7 @@
       </c>
       <c r="R3" s="4"/>
       <c r="S3" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="T3" s="2" t="s">
         <v>10</v>
@@ -1661,13 +1661,13 @@
         <v>24</v>
       </c>
       <c r="E5" s="3">
-        <v>45219</v>
+        <v>45222</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G5" s="3">
-        <v>45227</v>
+        <v>45224</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>25</v>
@@ -1682,7 +1682,7 @@
         <v>27</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="M5" s="4"/>
       <c r="N5" s="2" t="s">
@@ -1699,7 +1699,7 @@
       </c>
       <c r="R5" s="4"/>
       <c r="S5" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="T5" s="2" t="s">
         <v>10</v>
@@ -1783,19 +1783,19 @@
         <v>40</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>24</v>
       </c>
       <c r="E7" s="3">
-        <v>45218</v>
+        <v>45222</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G7" s="3">
-        <v>45218</v>
+        <v>45224</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>25</v>
@@ -1810,11 +1810,11 @@
         <v>27</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="M7" s="4"/>
       <c r="N7" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="O7" s="2" t="s">
         <v>28</v>
@@ -1827,7 +1827,7 @@
       </c>
       <c r="R7" s="4"/>
       <c r="S7" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="T7" s="2" t="s">
         <v>10</v>
@@ -1911,19 +1911,19 @@
         <v>22</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>24</v>
       </c>
       <c r="E9" s="3">
-        <v>45218</v>
+        <v>45222</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G9" s="3">
-        <v>45218</v>
+        <v>45224</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>25</v>
@@ -1938,11 +1938,11 @@
         <v>27</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="M9" s="4"/>
       <c r="N9" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="O9" s="2" t="s">
         <v>28</v>
@@ -1955,7 +1955,7 @@
       </c>
       <c r="R9" s="4"/>
       <c r="S9" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="T9" s="2" t="s">
         <v>10</v>
